--- a/data_storage/excel_db/UserFoodIntake.xlsx
+++ b/data_storage/excel_db/UserFoodIntake.xlsx
@@ -369,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K572"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B572"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,7 +405,7 @@
         <v>2106</v>
       </c>
       <c r="C2" s="4">
-        <v>44973</v>
+        <v>44700</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -418,7 +418,7 @@
         <v>2471</v>
       </c>
       <c r="C3" s="4">
-        <v>44974</v>
+        <v>44701</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -431,7 +431,7 @@
         <v>1655</v>
       </c>
       <c r="C4" s="4">
-        <v>44975</v>
+        <v>44702</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -444,7 +444,7 @@
         <v>2171</v>
       </c>
       <c r="C5" s="4">
-        <v>44976</v>
+        <v>44703</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -457,7 +457,7 @@
         <v>2317</v>
       </c>
       <c r="C6" s="4">
-        <v>44977</v>
+        <v>44704</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -470,7 +470,7 @@
         <v>2501</v>
       </c>
       <c r="C7" s="4">
-        <v>44978</v>
+        <v>44705</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -483,7 +483,7 @@
         <v>2221</v>
       </c>
       <c r="C8" s="4">
-        <v>44979</v>
+        <v>44706</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -496,7 +496,7 @@
         <v>2639</v>
       </c>
       <c r="C9" s="4">
-        <v>44980</v>
+        <v>44707</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -509,7 +509,7 @@
         <v>2183</v>
       </c>
       <c r="C10" s="4">
-        <v>44981</v>
+        <v>44708</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -522,7 +522,7 @@
         <v>2661</v>
       </c>
       <c r="C11" s="4">
-        <v>44982</v>
+        <v>44709</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -535,7 +535,7 @@
         <v>1696</v>
       </c>
       <c r="C12" s="4">
-        <v>44983</v>
+        <v>44710</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -548,7 +548,7 @@
         <v>2299</v>
       </c>
       <c r="C13" s="4">
-        <v>44984</v>
+        <v>44711</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -561,7 +561,7 @@
         <v>2325</v>
       </c>
       <c r="C14" s="4">
-        <v>44985</v>
+        <v>44712</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -574,7 +574,7 @@
         <v>2273</v>
       </c>
       <c r="C15" s="4">
-        <v>44986</v>
+        <v>44713</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -587,7 +587,7 @@
         <v>2182</v>
       </c>
       <c r="C16" s="4">
-        <v>44987</v>
+        <v>44714</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -600,7 +600,7 @@
         <v>1681</v>
       </c>
       <c r="C17" s="4">
-        <v>44988</v>
+        <v>44715</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -613,7 +613,7 @@
         <v>2546</v>
       </c>
       <c r="C18" s="4">
-        <v>44989</v>
+        <v>44716</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -626,7 +626,7 @@
         <v>2220</v>
       </c>
       <c r="C19" s="4">
-        <v>44990</v>
+        <v>44717</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -639,7 +639,7 @@
         <v>2246</v>
       </c>
       <c r="C20" s="4">
-        <v>44991</v>
+        <v>44718</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -652,7 +652,7 @@
         <v>1405</v>
       </c>
       <c r="C21" s="4">
-        <v>44992</v>
+        <v>44719</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -665,7 +665,7 @@
         <v>2160</v>
       </c>
       <c r="C22" s="4">
-        <v>44993</v>
+        <v>44720</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -678,7 +678,7 @@
         <v>2556</v>
       </c>
       <c r="C23" s="4">
-        <v>44994</v>
+        <v>44721</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -691,7 +691,7 @@
         <v>2540</v>
       </c>
       <c r="C24" s="4">
-        <v>44995</v>
+        <v>44722</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -704,7 +704,7 @@
         <v>2555</v>
       </c>
       <c r="C25" s="4">
-        <v>44996</v>
+        <v>44723</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -717,7 +717,7 @@
         <v>1656</v>
       </c>
       <c r="C26" s="4">
-        <v>44997</v>
+        <v>44724</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -730,7 +730,7 @@
         <v>2468</v>
       </c>
       <c r="C27" s="4">
-        <v>44998</v>
+        <v>44725</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -743,7 +743,7 @@
         <v>1601</v>
       </c>
       <c r="C28" s="4">
-        <v>44999</v>
+        <v>44726</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -756,7 +756,7 @@
         <v>2431</v>
       </c>
       <c r="C29" s="4">
-        <v>45000</v>
+        <v>44727</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -769,7 +769,7 @@
         <v>2061</v>
       </c>
       <c r="C30" s="4">
-        <v>45001</v>
+        <v>44728</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -782,7 +782,7 @@
         <v>2187</v>
       </c>
       <c r="C31" s="4">
-        <v>45002</v>
+        <v>44729</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -795,7 +795,7 @@
         <v>1524</v>
       </c>
       <c r="C32" s="4">
-        <v>45003</v>
+        <v>44730</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -808,7 +808,7 @@
         <v>2697</v>
       </c>
       <c r="C33" s="4">
-        <v>45004</v>
+        <v>44731</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -821,7 +821,7 @@
         <v>2508</v>
       </c>
       <c r="C34" s="4">
-        <v>45005</v>
+        <v>44732</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -834,7 +834,7 @@
         <v>2125</v>
       </c>
       <c r="C35" s="4">
-        <v>45006</v>
+        <v>44733</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -847,7 +847,7 @@
         <v>2413</v>
       </c>
       <c r="C36" s="4">
-        <v>45007</v>
+        <v>44734</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -860,7 +860,7 @@
         <v>1735</v>
       </c>
       <c r="C37" s="4">
-        <v>45008</v>
+        <v>44735</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -873,7 +873,7 @@
         <v>1841</v>
       </c>
       <c r="C38" s="4">
-        <v>45009</v>
+        <v>44736</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -886,7 +886,7 @@
         <v>2176</v>
       </c>
       <c r="C39" s="4">
-        <v>45010</v>
+        <v>44737</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -899,7 +899,7 @@
         <v>1638</v>
       </c>
       <c r="C40" s="4">
-        <v>45011</v>
+        <v>44738</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -912,7 +912,7 @@
         <v>2013</v>
       </c>
       <c r="C41" s="4">
-        <v>45012</v>
+        <v>44739</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -925,7 +925,7 @@
         <v>2480</v>
       </c>
       <c r="C42" s="4">
-        <v>45013</v>
+        <v>44740</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -938,7 +938,7 @@
         <v>2152</v>
       </c>
       <c r="C43" s="4">
-        <v>45014</v>
+        <v>44741</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -951,7 +951,7 @@
         <v>1810</v>
       </c>
       <c r="C44" s="4">
-        <v>45015</v>
+        <v>44742</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -964,7 +964,7 @@
         <v>1580</v>
       </c>
       <c r="C45" s="4">
-        <v>45016</v>
+        <v>44743</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -977,7 +977,7 @@
         <v>2685</v>
       </c>
       <c r="C46" s="4">
-        <v>45017</v>
+        <v>44744</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -990,7 +990,7 @@
         <v>2309</v>
       </c>
       <c r="C47" s="4">
-        <v>45018</v>
+        <v>44745</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1003,7 +1003,7 @@
         <v>2232</v>
       </c>
       <c r="C48" s="4">
-        <v>45019</v>
+        <v>44746</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -1016,7 +1016,7 @@
         <v>2673</v>
       </c>
       <c r="C49" s="4">
-        <v>45020</v>
+        <v>44747</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -1029,7 +1029,7 @@
         <v>1045</v>
       </c>
       <c r="C50" s="4">
-        <v>45021</v>
+        <v>44748</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -1042,7 +1042,7 @@
         <v>2621</v>
       </c>
       <c r="C51" s="4">
-        <v>45022</v>
+        <v>44749</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -1055,7 +1055,7 @@
         <v>1429</v>
       </c>
       <c r="C52" s="4">
-        <v>45023</v>
+        <v>44750</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -1068,7 +1068,7 @@
         <v>2273</v>
       </c>
       <c r="C53" s="4">
-        <v>45024</v>
+        <v>44751</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -1081,7 +1081,7 @@
         <v>2615</v>
       </c>
       <c r="C54" s="4">
-        <v>45025</v>
+        <v>44752</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1094,7 +1094,7 @@
         <v>2099</v>
       </c>
       <c r="C55" s="4">
-        <v>45026</v>
+        <v>44753</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -1107,7 +1107,7 @@
         <v>2071</v>
       </c>
       <c r="C56" s="4">
-        <v>45027</v>
+        <v>44754</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -1120,7 +1120,7 @@
         <v>1578</v>
       </c>
       <c r="C57" s="4">
-        <v>45028</v>
+        <v>44755</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -1133,7 +1133,7 @@
         <v>2262</v>
       </c>
       <c r="C58" s="4">
-        <v>45029</v>
+        <v>44756</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -1146,7 +1146,7 @@
         <v>2189</v>
       </c>
       <c r="C59" s="4">
-        <v>45030</v>
+        <v>44757</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -1159,7 +1159,7 @@
         <v>2561</v>
       </c>
       <c r="C60" s="4">
-        <v>45031</v>
+        <v>44758</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -1172,7 +1172,7 @@
         <v>1752</v>
       </c>
       <c r="C61" s="4">
-        <v>45032</v>
+        <v>44759</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -1185,7 +1185,7 @@
         <v>2542</v>
       </c>
       <c r="C62" s="4">
-        <v>45033</v>
+        <v>44760</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -1198,7 +1198,7 @@
         <v>2406</v>
       </c>
       <c r="C63" s="4">
-        <v>45034</v>
+        <v>44761</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -1211,7 +1211,7 @@
         <v>1626</v>
       </c>
       <c r="C64" s="4">
-        <v>45035</v>
+        <v>44762</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -1224,7 +1224,7 @@
         <v>2132</v>
       </c>
       <c r="C65" s="4">
-        <v>45036</v>
+        <v>44763</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -1237,7 +1237,7 @@
         <v>2160</v>
       </c>
       <c r="C66" s="4">
-        <v>45037</v>
+        <v>44764</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -1250,7 +1250,7 @@
         <v>1172</v>
       </c>
       <c r="C67" s="4">
-        <v>45038</v>
+        <v>44765</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -1263,7 +1263,7 @@
         <v>2497</v>
       </c>
       <c r="C68" s="4">
-        <v>45039</v>
+        <v>44766</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -1276,7 +1276,7 @@
         <v>2150</v>
       </c>
       <c r="C69" s="4">
-        <v>45040</v>
+        <v>44767</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -1289,7 +1289,7 @@
         <v>2562</v>
       </c>
       <c r="C70" s="4">
-        <v>45041</v>
+        <v>44768</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -1302,7 +1302,7 @@
         <v>2266</v>
       </c>
       <c r="C71" s="4">
-        <v>45042</v>
+        <v>44769</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -1315,7 +1315,7 @@
         <v>1881</v>
       </c>
       <c r="C72" s="4">
-        <v>45043</v>
+        <v>44770</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -1328,7 +1328,7 @@
         <v>2573</v>
       </c>
       <c r="C73" s="4">
-        <v>45044</v>
+        <v>44771</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -1341,7 +1341,7 @@
         <v>2249</v>
       </c>
       <c r="C74" s="4">
-        <v>45045</v>
+        <v>44772</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -1354,7 +1354,7 @@
         <v>2476</v>
       </c>
       <c r="C75" s="4">
-        <v>45046</v>
+        <v>44773</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -1367,7 +1367,7 @@
         <v>2347</v>
       </c>
       <c r="C76" s="4">
-        <v>45047</v>
+        <v>44774</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -1380,7 +1380,7 @@
         <v>2094</v>
       </c>
       <c r="C77" s="4">
-        <v>45048</v>
+        <v>44775</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -1393,7 +1393,7 @@
         <v>2334</v>
       </c>
       <c r="C78" s="4">
-        <v>45049</v>
+        <v>44776</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -1406,7 +1406,7 @@
         <v>2647</v>
       </c>
       <c r="C79" s="4">
-        <v>45050</v>
+        <v>44777</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -1419,7 +1419,7 @@
         <v>1656</v>
       </c>
       <c r="C80" s="4">
-        <v>45051</v>
+        <v>44778</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -1432,7 +1432,7 @@
         <v>1628</v>
       </c>
       <c r="C81" s="4">
-        <v>45052</v>
+        <v>44779</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -1445,7 +1445,7 @@
         <v>2583</v>
       </c>
       <c r="C82" s="4">
-        <v>45053</v>
+        <v>44780</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -1458,7 +1458,7 @@
         <v>2639</v>
       </c>
       <c r="C83" s="4">
-        <v>45054</v>
+        <v>44781</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -1471,7 +1471,7 @@
         <v>2165</v>
       </c>
       <c r="C84" s="4">
-        <v>45055</v>
+        <v>44782</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -1484,7 +1484,7 @@
         <v>2689</v>
       </c>
       <c r="C85" s="4">
-        <v>45056</v>
+        <v>44783</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -1497,7 +1497,7 @@
         <v>2595</v>
       </c>
       <c r="C86" s="4">
-        <v>45057</v>
+        <v>44784</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -1510,7 +1510,7 @@
         <v>1116</v>
       </c>
       <c r="C87" s="4">
-        <v>45058</v>
+        <v>44785</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -1523,7 +1523,7 @@
         <v>2597</v>
       </c>
       <c r="C88" s="4">
-        <v>45059</v>
+        <v>44786</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -1536,7 +1536,7 @@
         <v>2586</v>
       </c>
       <c r="C89" s="4">
-        <v>45060</v>
+        <v>44787</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -1549,7 +1549,7 @@
         <v>2129</v>
       </c>
       <c r="C90" s="4">
-        <v>45061</v>
+        <v>44788</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -1562,7 +1562,7 @@
         <v>2475</v>
       </c>
       <c r="C91" s="4">
-        <v>45062</v>
+        <v>44789</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -1575,7 +1575,7 @@
         <v>2460</v>
       </c>
       <c r="C92" s="4">
-        <v>45063</v>
+        <v>44790</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -1588,7 +1588,7 @@
         <v>2481</v>
       </c>
       <c r="C93" s="4">
-        <v>45064</v>
+        <v>44791</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -1601,7 +1601,7 @@
         <v>2034</v>
       </c>
       <c r="C94" s="4">
-        <v>45065</v>
+        <v>44792</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -1614,7 +1614,7 @@
         <v>1784</v>
       </c>
       <c r="C95" s="4">
-        <v>45066</v>
+        <v>44793</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -1627,7 +1627,7 @@
         <v>2275</v>
       </c>
       <c r="C96" s="4">
-        <v>45067</v>
+        <v>44794</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -1640,7 +1640,7 @@
         <v>1611</v>
       </c>
       <c r="C97" s="4">
-        <v>45068</v>
+        <v>44795</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -1653,7 +1653,7 @@
         <v>2379</v>
       </c>
       <c r="C98" s="4">
-        <v>45069</v>
+        <v>44796</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -1666,7 +1666,7 @@
         <v>2681</v>
       </c>
       <c r="C99" s="4">
-        <v>45070</v>
+        <v>44797</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -1679,7 +1679,7 @@
         <v>1509</v>
       </c>
       <c r="C100" s="4">
-        <v>45071</v>
+        <v>44798</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -1692,7 +1692,7 @@
         <v>1821</v>
       </c>
       <c r="C101" s="4">
-        <v>45072</v>
+        <v>44799</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -1705,7 +1705,7 @@
         <v>2487</v>
       </c>
       <c r="C102" s="4">
-        <v>45073</v>
+        <v>44800</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -1718,7 +1718,7 @@
         <v>2492</v>
       </c>
       <c r="C103" s="4">
-        <v>45074</v>
+        <v>44801</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -1731,7 +1731,7 @@
         <v>2148</v>
       </c>
       <c r="C104" s="4">
-        <v>45075</v>
+        <v>44802</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -1744,7 +1744,7 @@
         <v>2078</v>
       </c>
       <c r="C105" s="4">
-        <v>45076</v>
+        <v>44803</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -1757,7 +1757,7 @@
         <v>1571</v>
       </c>
       <c r="C106" s="4">
-        <v>45077</v>
+        <v>44804</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -1770,7 +1770,7 @@
         <v>1678</v>
       </c>
       <c r="C107" s="4">
-        <v>45078</v>
+        <v>44805</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -1783,7 +1783,7 @@
         <v>2338</v>
       </c>
       <c r="C108" s="4">
-        <v>45079</v>
+        <v>44806</v>
       </c>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -1796,7 +1796,7 @@
         <v>2334</v>
       </c>
       <c r="C109" s="4">
-        <v>45080</v>
+        <v>44807</v>
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -1809,7 +1809,7 @@
         <v>2263</v>
       </c>
       <c r="C110" s="4">
-        <v>45081</v>
+        <v>44808</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -1822,7 +1822,7 @@
         <v>1483</v>
       </c>
       <c r="C111" s="4">
-        <v>45082</v>
+        <v>44809</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -1835,7 +1835,7 @@
         <v>1041</v>
       </c>
       <c r="C112" s="4">
-        <v>45083</v>
+        <v>44810</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -1848,7 +1848,7 @@
         <v>2583</v>
       </c>
       <c r="C113" s="4">
-        <v>45084</v>
+        <v>44811</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -1861,7 +1861,7 @@
         <v>1741</v>
       </c>
       <c r="C114" s="4">
-        <v>45085</v>
+        <v>44812</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -1874,7 +1874,7 @@
         <v>2099</v>
       </c>
       <c r="C115" s="4">
-        <v>45086</v>
+        <v>44813</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -1887,7 +1887,7 @@
         <v>2210</v>
       </c>
       <c r="C116" s="4">
-        <v>45087</v>
+        <v>44814</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -1900,7 +1900,7 @@
         <v>2452</v>
       </c>
       <c r="C117" s="4">
-        <v>45088</v>
+        <v>44815</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -1913,7 +1913,7 @@
         <v>2446</v>
       </c>
       <c r="C118" s="4">
-        <v>45089</v>
+        <v>44816</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -1926,7 +1926,7 @@
         <v>2599</v>
       </c>
       <c r="C119" s="4">
-        <v>45090</v>
+        <v>44817</v>
       </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -1939,7 +1939,7 @@
         <v>2554</v>
       </c>
       <c r="C120" s="4">
-        <v>45091</v>
+        <v>44818</v>
       </c>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -1952,7 +1952,7 @@
         <v>2492</v>
       </c>
       <c r="C121" s="4">
-        <v>45092</v>
+        <v>44819</v>
       </c>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -1965,7 +1965,7 @@
         <v>1832</v>
       </c>
       <c r="C122" s="4">
-        <v>45093</v>
+        <v>44820</v>
       </c>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -1978,7 +1978,7 @@
         <v>2187</v>
       </c>
       <c r="C123" s="4">
-        <v>45094</v>
+        <v>44821</v>
       </c>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -1991,7 +1991,7 @@
         <v>2219</v>
       </c>
       <c r="C124" s="4">
-        <v>45095</v>
+        <v>44822</v>
       </c>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -2004,7 +2004,7 @@
         <v>2025</v>
       </c>
       <c r="C125" s="4">
-        <v>45096</v>
+        <v>44823</v>
       </c>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -2017,7 +2017,7 @@
         <v>2698</v>
       </c>
       <c r="C126" s="4">
-        <v>45097</v>
+        <v>44824</v>
       </c>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -2030,7 +2030,7 @@
         <v>2076</v>
       </c>
       <c r="C127" s="4">
-        <v>45098</v>
+        <v>44825</v>
       </c>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -2043,7 +2043,7 @@
         <v>2333</v>
       </c>
       <c r="C128" s="4">
-        <v>45099</v>
+        <v>44826</v>
       </c>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -2056,7 +2056,7 @@
         <v>2382</v>
       </c>
       <c r="C129" s="4">
-        <v>45100</v>
+        <v>44827</v>
       </c>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -2069,7 +2069,7 @@
         <v>2690</v>
       </c>
       <c r="C130" s="4">
-        <v>45101</v>
+        <v>44828</v>
       </c>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -2082,7 +2082,7 @@
         <v>2186</v>
       </c>
       <c r="C131" s="4">
-        <v>45102</v>
+        <v>44829</v>
       </c>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -2095,7 +2095,7 @@
         <v>2117</v>
       </c>
       <c r="C132" s="4">
-        <v>45103</v>
+        <v>44830</v>
       </c>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -2108,7 +2108,7 @@
         <v>2405</v>
       </c>
       <c r="C133" s="4">
-        <v>45104</v>
+        <v>44831</v>
       </c>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -2121,7 +2121,7 @@
         <v>2174</v>
       </c>
       <c r="C134" s="4">
-        <v>45105</v>
+        <v>44832</v>
       </c>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -2134,7 +2134,7 @@
         <v>2470</v>
       </c>
       <c r="C135" s="4">
-        <v>45106</v>
+        <v>44833</v>
       </c>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -2147,7 +2147,7 @@
         <v>1613</v>
       </c>
       <c r="C136" s="4">
-        <v>45107</v>
+        <v>44834</v>
       </c>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -2160,7 +2160,7 @@
         <v>2028</v>
       </c>
       <c r="C137" s="4">
-        <v>45108</v>
+        <v>44835</v>
       </c>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -2173,7 +2173,7 @@
         <v>2618</v>
       </c>
       <c r="C138" s="4">
-        <v>45109</v>
+        <v>44836</v>
       </c>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -2186,7 +2186,7 @@
         <v>2677</v>
       </c>
       <c r="C139" s="4">
-        <v>45110</v>
+        <v>44837</v>
       </c>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -2199,7 +2199,7 @@
         <v>1189</v>
       </c>
       <c r="C140" s="4">
-        <v>45111</v>
+        <v>44838</v>
       </c>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -2212,7 +2212,7 @@
         <v>2005</v>
       </c>
       <c r="C141" s="4">
-        <v>45112</v>
+        <v>44839</v>
       </c>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -2225,7 +2225,7 @@
         <v>2423</v>
       </c>
       <c r="C142" s="4">
-        <v>45113</v>
+        <v>44840</v>
       </c>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -2238,7 +2238,7 @@
         <v>2283</v>
       </c>
       <c r="C143" s="4">
-        <v>45114</v>
+        <v>44841</v>
       </c>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -2251,7 +2251,7 @@
         <v>2500</v>
       </c>
       <c r="C144" s="4">
-        <v>45115</v>
+        <v>44842</v>
       </c>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -2264,7 +2264,7 @@
         <v>2066</v>
       </c>
       <c r="C145" s="4">
-        <v>45116</v>
+        <v>44843</v>
       </c>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -2277,7 +2277,7 @@
         <v>2648</v>
       </c>
       <c r="C146" s="4">
-        <v>45117</v>
+        <v>44844</v>
       </c>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -2290,7 +2290,7 @@
         <v>1479</v>
       </c>
       <c r="C147" s="4">
-        <v>45118</v>
+        <v>44845</v>
       </c>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -2303,7 +2303,7 @@
         <v>2312</v>
       </c>
       <c r="C148" s="4">
-        <v>45119</v>
+        <v>44846</v>
       </c>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -2316,7 +2316,7 @@
         <v>2256</v>
       </c>
       <c r="C149" s="4">
-        <v>45120</v>
+        <v>44847</v>
       </c>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -2329,7 +2329,7 @@
         <v>1039</v>
       </c>
       <c r="C150" s="4">
-        <v>45121</v>
+        <v>44848</v>
       </c>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -2342,7 +2342,7 @@
         <v>2515</v>
       </c>
       <c r="C151" s="4">
-        <v>45122</v>
+        <v>44849</v>
       </c>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -2355,7 +2355,7 @@
         <v>1711</v>
       </c>
       <c r="C152" s="4">
-        <v>45123</v>
+        <v>44850</v>
       </c>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -2368,7 +2368,7 @@
         <v>1802</v>
       </c>
       <c r="C153" s="4">
-        <v>45124</v>
+        <v>44851</v>
       </c>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -2381,7 +2381,7 @@
         <v>1800</v>
       </c>
       <c r="C154" s="4">
-        <v>45125</v>
+        <v>44852</v>
       </c>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -2394,7 +2394,7 @@
         <v>2419</v>
       </c>
       <c r="C155" s="4">
-        <v>45126</v>
+        <v>44853</v>
       </c>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -2407,7 +2407,7 @@
         <v>1501</v>
       </c>
       <c r="C156" s="4">
-        <v>45127</v>
+        <v>44854</v>
       </c>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -2420,7 +2420,7 @@
         <v>1741</v>
       </c>
       <c r="C157" s="4">
-        <v>45128</v>
+        <v>44855</v>
       </c>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -2433,7 +2433,7 @@
         <v>1749</v>
       </c>
       <c r="C158" s="4">
-        <v>45129</v>
+        <v>44856</v>
       </c>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -2446,7 +2446,7 @@
         <v>2455</v>
       </c>
       <c r="C159" s="4">
-        <v>45130</v>
+        <v>44857</v>
       </c>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -2459,7 +2459,7 @@
         <v>2555</v>
       </c>
       <c r="C160" s="4">
-        <v>45131</v>
+        <v>44858</v>
       </c>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -2472,7 +2472,7 @@
         <v>2537</v>
       </c>
       <c r="C161" s="4">
-        <v>45132</v>
+        <v>44859</v>
       </c>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -2485,7 +2485,7 @@
         <v>2607</v>
       </c>
       <c r="C162" s="4">
-        <v>45133</v>
+        <v>44860</v>
       </c>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -2498,7 +2498,7 @@
         <v>2608</v>
       </c>
       <c r="C163" s="4">
-        <v>45134</v>
+        <v>44861</v>
       </c>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
@@ -2511,7 +2511,7 @@
         <v>2513</v>
       </c>
       <c r="C164" s="4">
-        <v>45135</v>
+        <v>44862</v>
       </c>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
@@ -2524,7 +2524,7 @@
         <v>2266</v>
       </c>
       <c r="C165" s="4">
-        <v>45136</v>
+        <v>44863</v>
       </c>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -2537,7 +2537,7 @@
         <v>1735</v>
       </c>
       <c r="C166" s="4">
-        <v>45137</v>
+        <v>44864</v>
       </c>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
@@ -2550,7 +2550,7 @@
         <v>2621</v>
       </c>
       <c r="C167" s="4">
-        <v>45138</v>
+        <v>44865</v>
       </c>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
@@ -2563,7 +2563,7 @@
         <v>2403</v>
       </c>
       <c r="C168" s="4">
-        <v>45139</v>
+        <v>44866</v>
       </c>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
@@ -2576,7 +2576,7 @@
         <v>2352</v>
       </c>
       <c r="C169" s="4">
-        <v>45140</v>
+        <v>44867</v>
       </c>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
@@ -2589,7 +2589,7 @@
         <v>2502</v>
       </c>
       <c r="C170" s="4">
-        <v>45141</v>
+        <v>44868</v>
       </c>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
@@ -2602,7 +2602,7 @@
         <v>2183</v>
       </c>
       <c r="C171" s="4">
-        <v>45142</v>
+        <v>44869</v>
       </c>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
@@ -2615,7 +2615,7 @@
         <v>1191</v>
       </c>
       <c r="C172" s="4">
-        <v>45143</v>
+        <v>44870</v>
       </c>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -2628,7 +2628,7 @@
         <v>2653</v>
       </c>
       <c r="C173" s="4">
-        <v>45144</v>
+        <v>44871</v>
       </c>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
@@ -2641,7 +2641,7 @@
         <v>2694</v>
       </c>
       <c r="C174" s="4">
-        <v>45145</v>
+        <v>44872</v>
       </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
@@ -2654,7 +2654,7 @@
         <v>2303</v>
       </c>
       <c r="C175" s="4">
-        <v>45146</v>
+        <v>44873</v>
       </c>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -2667,7 +2667,7 @@
         <v>1883</v>
       </c>
       <c r="C176" s="4">
-        <v>45147</v>
+        <v>44874</v>
       </c>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
@@ -2680,7 +2680,7 @@
         <v>1194</v>
       </c>
       <c r="C177" s="4">
-        <v>45148</v>
+        <v>44875</v>
       </c>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
@@ -2693,7 +2693,7 @@
         <v>2570</v>
       </c>
       <c r="C178" s="4">
-        <v>45149</v>
+        <v>44876</v>
       </c>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
@@ -2706,7 +2706,7 @@
         <v>2245</v>
       </c>
       <c r="C179" s="4">
-        <v>45150</v>
+        <v>44877</v>
       </c>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -2719,7 +2719,7 @@
         <v>2487</v>
       </c>
       <c r="C180" s="4">
-        <v>45151</v>
+        <v>44878</v>
       </c>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
@@ -2732,7 +2732,7 @@
         <v>2192</v>
       </c>
       <c r="C181" s="4">
-        <v>45152</v>
+        <v>44879</v>
       </c>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
@@ -2745,7 +2745,7 @@
         <v>1424</v>
       </c>
       <c r="C182" s="4">
-        <v>45153</v>
+        <v>44880</v>
       </c>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
@@ -2758,7 +2758,7 @@
         <v>1637</v>
       </c>
       <c r="C183" s="4">
-        <v>45154</v>
+        <v>44881</v>
       </c>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
@@ -2771,7 +2771,7 @@
         <v>2410</v>
       </c>
       <c r="C184" s="4">
-        <v>45155</v>
+        <v>44882</v>
       </c>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
@@ -2784,7 +2784,7 @@
         <v>1620</v>
       </c>
       <c r="C185" s="4">
-        <v>45156</v>
+        <v>44883</v>
       </c>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
@@ -2797,7 +2797,7 @@
         <v>2478</v>
       </c>
       <c r="C186" s="4">
-        <v>45157</v>
+        <v>44884</v>
       </c>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -2810,7 +2810,7 @@
         <v>2561</v>
       </c>
       <c r="C187" s="4">
-        <v>45158</v>
+        <v>44885</v>
       </c>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
@@ -2823,7 +2823,7 @@
         <v>2363</v>
       </c>
       <c r="C188" s="4">
-        <v>45159</v>
+        <v>44886</v>
       </c>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
@@ -2836,7 +2836,7 @@
         <v>2602</v>
       </c>
       <c r="C189" s="4">
-        <v>45160</v>
+        <v>44887</v>
       </c>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
@@ -2849,7 +2849,7 @@
         <v>2138</v>
       </c>
       <c r="C190" s="4">
-        <v>45161</v>
+        <v>44888</v>
       </c>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
@@ -2862,7 +2862,7 @@
         <v>2510</v>
       </c>
       <c r="C191" s="4">
-        <v>45162</v>
+        <v>44889</v>
       </c>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
@@ -2875,7 +2875,7 @@
         <v>2624</v>
       </c>
       <c r="C192" s="4">
-        <v>45163</v>
+        <v>44890</v>
       </c>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
@@ -2888,7 +2888,7 @@
         <v>2292</v>
       </c>
       <c r="C193" s="4">
-        <v>45164</v>
+        <v>44891</v>
       </c>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -2901,7 +2901,7 @@
         <v>1622</v>
       </c>
       <c r="C194" s="4">
-        <v>45165</v>
+        <v>44892</v>
       </c>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
@@ -2914,7 +2914,7 @@
         <v>2585</v>
       </c>
       <c r="C195" s="4">
-        <v>45166</v>
+        <v>44893</v>
       </c>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
@@ -2927,7 +2927,7 @@
         <v>2238</v>
       </c>
       <c r="C196" s="4">
-        <v>45167</v>
+        <v>44894</v>
       </c>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
@@ -2940,7 +2940,7 @@
         <v>2661</v>
       </c>
       <c r="C197" s="4">
-        <v>45168</v>
+        <v>44895</v>
       </c>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
@@ -2953,7 +2953,7 @@
         <v>2254</v>
       </c>
       <c r="C198" s="4">
-        <v>45169</v>
+        <v>44896</v>
       </c>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
@@ -2966,7 +2966,7 @@
         <v>2080</v>
       </c>
       <c r="C199" s="4">
-        <v>45170</v>
+        <v>44897</v>
       </c>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
@@ -2979,7 +2979,7 @@
         <v>2159</v>
       </c>
       <c r="C200" s="4">
-        <v>45171</v>
+        <v>44898</v>
       </c>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -2992,7 +2992,7 @@
         <v>2116</v>
       </c>
       <c r="C201" s="4">
-        <v>45172</v>
+        <v>44899</v>
       </c>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
@@ -3005,7 +3005,7 @@
         <v>2087</v>
       </c>
       <c r="C202" s="4">
-        <v>45173</v>
+        <v>44900</v>
       </c>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
@@ -3018,7 +3018,7 @@
         <v>1659</v>
       </c>
       <c r="C203" s="4">
-        <v>45174</v>
+        <v>44901</v>
       </c>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
@@ -3031,7 +3031,7 @@
         <v>2124</v>
       </c>
       <c r="C204" s="4">
-        <v>45175</v>
+        <v>44902</v>
       </c>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
@@ -3044,7 +3044,7 @@
         <v>1716</v>
       </c>
       <c r="C205" s="4">
-        <v>45176</v>
+        <v>44903</v>
       </c>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
@@ -3057,7 +3057,7 @@
         <v>2439</v>
       </c>
       <c r="C206" s="4">
-        <v>45177</v>
+        <v>44904</v>
       </c>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
@@ -3070,7 +3070,7 @@
         <v>1410</v>
       </c>
       <c r="C207" s="4">
-        <v>45178</v>
+        <v>44905</v>
       </c>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -3083,7 +3083,7 @@
         <v>2651</v>
       </c>
       <c r="C208" s="4">
-        <v>45179</v>
+        <v>44906</v>
       </c>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
@@ -3096,7 +3096,7 @@
         <v>1485</v>
       </c>
       <c r="C209" s="4">
-        <v>45180</v>
+        <v>44907</v>
       </c>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
@@ -3109,7 +3109,7 @@
         <v>2034</v>
       </c>
       <c r="C210" s="4">
-        <v>45181</v>
+        <v>44908</v>
       </c>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
@@ -3122,7 +3122,7 @@
         <v>2565</v>
       </c>
       <c r="C211" s="4">
-        <v>45182</v>
+        <v>44909</v>
       </c>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
@@ -3135,7 +3135,7 @@
         <v>1474</v>
       </c>
       <c r="C212" s="4">
-        <v>45183</v>
+        <v>44910</v>
       </c>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
@@ -3148,7 +3148,7 @@
         <v>1510</v>
       </c>
       <c r="C213" s="4">
-        <v>45184</v>
+        <v>44911</v>
       </c>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
@@ -3161,7 +3161,7 @@
         <v>2438</v>
       </c>
       <c r="C214" s="4">
-        <v>45185</v>
+        <v>44912</v>
       </c>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -3174,7 +3174,7 @@
         <v>2295</v>
       </c>
       <c r="C215" s="4">
-        <v>45186</v>
+        <v>44913</v>
       </c>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
@@ -3187,7 +3187,7 @@
         <v>2350</v>
       </c>
       <c r="C216" s="4">
-        <v>45187</v>
+        <v>44914</v>
       </c>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
@@ -3200,7 +3200,7 @@
         <v>2493</v>
       </c>
       <c r="C217" s="4">
-        <v>45188</v>
+        <v>44915</v>
       </c>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
@@ -3213,7 +3213,7 @@
         <v>2049</v>
       </c>
       <c r="C218" s="4">
-        <v>45189</v>
+        <v>44916</v>
       </c>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
@@ -3226,7 +3226,7 @@
         <v>1500</v>
       </c>
       <c r="C219" s="4">
-        <v>45190</v>
+        <v>44917</v>
       </c>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
@@ -3239,7 +3239,7 @@
         <v>1539</v>
       </c>
       <c r="C220" s="4">
-        <v>45191</v>
+        <v>44918</v>
       </c>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
@@ -3252,7 +3252,7 @@
         <v>2501</v>
       </c>
       <c r="C221" s="4">
-        <v>45192</v>
+        <v>44919</v>
       </c>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
@@ -3265,7 +3265,7 @@
         <v>1891</v>
       </c>
       <c r="C222" s="4">
-        <v>45193</v>
+        <v>44920</v>
       </c>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -3278,7 +3278,7 @@
         <v>2099</v>
       </c>
       <c r="C223" s="4">
-        <v>45194</v>
+        <v>44921</v>
       </c>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -3291,7 +3291,7 @@
         <v>2617</v>
       </c>
       <c r="C224" s="4">
-        <v>45195</v>
+        <v>44922</v>
       </c>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -3304,7 +3304,7 @@
         <v>1767</v>
       </c>
       <c r="C225" s="4">
-        <v>45196</v>
+        <v>44923</v>
       </c>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -3317,7 +3317,7 @@
         <v>2251</v>
       </c>
       <c r="C226" s="4">
-        <v>45197</v>
+        <v>44924</v>
       </c>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -3330,7 +3330,7 @@
         <v>2127</v>
       </c>
       <c r="C227" s="4">
-        <v>45198</v>
+        <v>44925</v>
       </c>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -3343,7 +3343,7 @@
         <v>1191</v>
       </c>
       <c r="C228" s="4">
-        <v>45199</v>
+        <v>44926</v>
       </c>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
@@ -3356,7 +3356,7 @@
         <v>2277</v>
       </c>
       <c r="C229" s="4">
-        <v>45200</v>
+        <v>44927</v>
       </c>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -3369,7 +3369,7 @@
         <v>2126</v>
       </c>
       <c r="C230" s="4">
-        <v>45201</v>
+        <v>44928</v>
       </c>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
@@ -3382,7 +3382,7 @@
         <v>2689</v>
       </c>
       <c r="C231" s="4">
-        <v>45202</v>
+        <v>44929</v>
       </c>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
@@ -3395,7 +3395,7 @@
         <v>2008</v>
       </c>
       <c r="C232" s="4">
-        <v>45203</v>
+        <v>44930</v>
       </c>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -3408,7 +3408,7 @@
         <v>2332</v>
       </c>
       <c r="C233" s="4">
-        <v>45204</v>
+        <v>44931</v>
       </c>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -3421,7 +3421,7 @@
         <v>1658</v>
       </c>
       <c r="C234" s="4">
-        <v>45205</v>
+        <v>44932</v>
       </c>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -3434,7 +3434,7 @@
         <v>1862</v>
       </c>
       <c r="C235" s="4">
-        <v>45206</v>
+        <v>44933</v>
       </c>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
@@ -3447,7 +3447,7 @@
         <v>2677</v>
       </c>
       <c r="C236" s="4">
-        <v>45207</v>
+        <v>44934</v>
       </c>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
@@ -3460,7 +3460,7 @@
         <v>2479</v>
       </c>
       <c r="C237" s="4">
-        <v>45208</v>
+        <v>44935</v>
       </c>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
@@ -3473,7 +3473,7 @@
         <v>2286</v>
       </c>
       <c r="C238" s="4">
-        <v>45209</v>
+        <v>44936</v>
       </c>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
@@ -3486,7 +3486,7 @@
         <v>2154</v>
       </c>
       <c r="C239" s="4">
-        <v>45210</v>
+        <v>44937</v>
       </c>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
@@ -3499,7 +3499,7 @@
         <v>1592</v>
       </c>
       <c r="C240" s="4">
-        <v>45211</v>
+        <v>44938</v>
       </c>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -3512,7 +3512,7 @@
         <v>2145</v>
       </c>
       <c r="C241" s="4">
-        <v>45212</v>
+        <v>44939</v>
       </c>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -3525,7 +3525,7 @@
         <v>1873</v>
       </c>
       <c r="C242" s="4">
-        <v>45213</v>
+        <v>44940</v>
       </c>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
@@ -3538,7 +3538,7 @@
         <v>2573</v>
       </c>
       <c r="C243" s="4">
-        <v>45214</v>
+        <v>44941</v>
       </c>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
@@ -3551,7 +3551,7 @@
         <v>2420</v>
       </c>
       <c r="C244" s="4">
-        <v>45215</v>
+        <v>44942</v>
       </c>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
@@ -3564,7 +3564,7 @@
         <v>1784</v>
       </c>
       <c r="C245" s="4">
-        <v>45216</v>
+        <v>44943</v>
       </c>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
@@ -3577,7 +3577,7 @@
         <v>1401</v>
       </c>
       <c r="C246" s="4">
-        <v>45217</v>
+        <v>44944</v>
       </c>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
@@ -3590,7 +3590,7 @@
         <v>2217</v>
       </c>
       <c r="C247" s="4">
-        <v>45218</v>
+        <v>44945</v>
       </c>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
@@ -3603,7 +3603,7 @@
         <v>2377</v>
       </c>
       <c r="C248" s="4">
-        <v>45219</v>
+        <v>44946</v>
       </c>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -3616,7 +3616,7 @@
         <v>2398</v>
       </c>
       <c r="C249" s="4">
-        <v>45220</v>
+        <v>44947</v>
       </c>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
@@ -3629,7 +3629,7 @@
         <v>2617</v>
       </c>
       <c r="C250" s="4">
-        <v>45221</v>
+        <v>44948</v>
       </c>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
@@ -3642,7 +3642,7 @@
         <v>1476</v>
       </c>
       <c r="C251" s="4">
-        <v>45222</v>
+        <v>44949</v>
       </c>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
@@ -3655,7 +3655,7 @@
         <v>2495</v>
       </c>
       <c r="C252" s="4">
-        <v>45223</v>
+        <v>44950</v>
       </c>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
@@ -3668,7 +3668,7 @@
         <v>2638</v>
       </c>
       <c r="C253" s="4">
-        <v>45224</v>
+        <v>44951</v>
       </c>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
@@ -3681,7 +3681,7 @@
         <v>1554</v>
       </c>
       <c r="C254" s="4">
-        <v>45225</v>
+        <v>44952</v>
       </c>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -3694,7 +3694,7 @@
         <v>2557</v>
       </c>
       <c r="C255" s="4">
-        <v>45226</v>
+        <v>44953</v>
       </c>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -3707,7 +3707,7 @@
         <v>2044</v>
       </c>
       <c r="C256" s="4">
-        <v>45227</v>
+        <v>44954</v>
       </c>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
@@ -3720,7 +3720,7 @@
         <v>2619</v>
       </c>
       <c r="C257" s="4">
-        <v>45228</v>
+        <v>44955</v>
       </c>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
@@ -3733,7 +3733,7 @@
         <v>2148</v>
       </c>
       <c r="C258" s="4">
-        <v>45229</v>
+        <v>44956</v>
       </c>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
@@ -3746,7 +3746,7 @@
         <v>2335</v>
       </c>
       <c r="C259" s="4">
-        <v>45230</v>
+        <v>44957</v>
       </c>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
@@ -3759,7 +3759,7 @@
         <v>2117</v>
       </c>
       <c r="C260" s="4">
-        <v>45231</v>
+        <v>44958</v>
       </c>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
@@ -3772,7 +3772,7 @@
         <v>2400</v>
       </c>
       <c r="C261" s="4">
-        <v>45232</v>
+        <v>44959</v>
       </c>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
@@ -3785,7 +3785,7 @@
         <v>2270</v>
       </c>
       <c r="C262" s="4">
-        <v>45233</v>
+        <v>44960</v>
       </c>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -3798,7 +3798,7 @@
         <v>2328</v>
       </c>
       <c r="C263" s="4">
-        <v>45234</v>
+        <v>44961</v>
       </c>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
@@ -3811,7 +3811,7 @@
         <v>2279</v>
       </c>
       <c r="C264" s="4">
-        <v>45235</v>
+        <v>44962</v>
       </c>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
@@ -3824,7 +3824,7 @@
         <v>1730</v>
       </c>
       <c r="C265" s="4">
-        <v>45236</v>
+        <v>44963</v>
       </c>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
@@ -3837,7 +3837,7 @@
         <v>1465</v>
       </c>
       <c r="C266" s="4">
-        <v>45237</v>
+        <v>44964</v>
       </c>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
@@ -3850,7 +3850,7 @@
         <v>2472</v>
       </c>
       <c r="C267" s="4">
-        <v>45238</v>
+        <v>44965</v>
       </c>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
@@ -3863,7 +3863,7 @@
         <v>2342</v>
       </c>
       <c r="C268" s="4">
-        <v>45239</v>
+        <v>44966</v>
       </c>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -3876,7 +3876,7 @@
         <v>1408</v>
       </c>
       <c r="C269" s="4">
-        <v>45240</v>
+        <v>44967</v>
       </c>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -3889,7 +3889,7 @@
         <v>2500</v>
       </c>
       <c r="C270" s="4">
-        <v>45241</v>
+        <v>44968</v>
       </c>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
@@ -3902,7 +3902,7 @@
         <v>1406</v>
       </c>
       <c r="C271" s="4">
-        <v>45242</v>
+        <v>44969</v>
       </c>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
@@ -3915,7 +3915,7 @@
         <v>2513</v>
       </c>
       <c r="C272" s="4">
-        <v>45243</v>
+        <v>44970</v>
       </c>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
@@ -3928,7 +3928,7 @@
         <v>2195</v>
       </c>
       <c r="C273" s="4">
-        <v>45244</v>
+        <v>44971</v>
       </c>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
@@ -3941,7 +3941,7 @@
         <v>2600</v>
       </c>
       <c r="C274" s="4">
-        <v>45245</v>
+        <v>44972</v>
       </c>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
@@ -3954,7 +3954,7 @@
         <v>1671</v>
       </c>
       <c r="C275" s="4">
-        <v>45246</v>
+        <v>44973</v>
       </c>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -3967,7 +3967,7 @@
         <v>1476</v>
       </c>
       <c r="C276" s="4">
-        <v>45247</v>
+        <v>44974</v>
       </c>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -3980,7 +3980,7 @@
         <v>2682</v>
       </c>
       <c r="C277" s="4">
-        <v>45248</v>
+        <v>44975</v>
       </c>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
@@ -3993,7 +3993,7 @@
         <v>2476</v>
       </c>
       <c r="C278" s="4">
-        <v>45249</v>
+        <v>44976</v>
       </c>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
@@ -4006,7 +4006,7 @@
         <v>1883</v>
       </c>
       <c r="C279" s="4">
-        <v>45250</v>
+        <v>44977</v>
       </c>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
@@ -4019,7 +4019,7 @@
         <v>2514</v>
       </c>
       <c r="C280" s="4">
-        <v>45251</v>
+        <v>44978</v>
       </c>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
@@ -4032,7 +4032,7 @@
         <v>2087</v>
       </c>
       <c r="C281" s="4">
-        <v>45252</v>
+        <v>44979</v>
       </c>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
@@ -4045,7 +4045,7 @@
         <v>1690</v>
       </c>
       <c r="C282" s="4">
-        <v>45253</v>
+        <v>44980</v>
       </c>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -4058,7 +4058,7 @@
         <v>2260</v>
       </c>
       <c r="C283" s="4">
-        <v>45254</v>
+        <v>44981</v>
       </c>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -4071,7 +4071,7 @@
         <v>2555</v>
       </c>
       <c r="C284" s="4">
-        <v>45255</v>
+        <v>44982</v>
       </c>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
@@ -4084,7 +4084,7 @@
         <v>2455</v>
       </c>
       <c r="C285" s="4">
-        <v>45256</v>
+        <v>44983</v>
       </c>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -4097,7 +4097,7 @@
         <v>2252</v>
       </c>
       <c r="C286" s="4">
-        <v>45257</v>
+        <v>44984</v>
       </c>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
@@ -4110,7 +4110,7 @@
         <v>2160</v>
       </c>
       <c r="C287" s="4">
-        <v>45258</v>
+        <v>44985</v>
       </c>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
@@ -4123,7 +4123,7 @@
         <v>1472</v>
       </c>
       <c r="C288" s="4">
-        <v>45259</v>
+        <v>44986</v>
       </c>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
@@ -4136,7 +4136,7 @@
         <v>2687</v>
       </c>
       <c r="C289" s="4">
-        <v>45260</v>
+        <v>44987</v>
       </c>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -4149,7 +4149,7 @@
         <v>2100</v>
       </c>
       <c r="C290" s="4">
-        <v>45261</v>
+        <v>44988</v>
       </c>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -4162,7 +4162,7 @@
         <v>1619</v>
       </c>
       <c r="C291" s="4">
-        <v>45262</v>
+        <v>44989</v>
       </c>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
@@ -4175,7 +4175,7 @@
         <v>1873</v>
       </c>
       <c r="C292" s="4">
-        <v>45263</v>
+        <v>44990</v>
       </c>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
@@ -4188,7 +4188,7 @@
         <v>2079</v>
       </c>
       <c r="C293" s="4">
-        <v>45264</v>
+        <v>44991</v>
       </c>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
@@ -4201,7 +4201,7 @@
         <v>1171</v>
       </c>
       <c r="C294" s="4">
-        <v>45265</v>
+        <v>44992</v>
       </c>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
@@ -4214,7 +4214,7 @@
         <v>2621</v>
       </c>
       <c r="C295" s="4">
-        <v>45266</v>
+        <v>44993</v>
       </c>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
@@ -4227,7 +4227,7 @@
         <v>2420</v>
       </c>
       <c r="C296" s="4">
-        <v>45267</v>
+        <v>44994</v>
       </c>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -4240,7 +4240,7 @@
         <v>2337</v>
       </c>
       <c r="C297" s="4">
-        <v>45268</v>
+        <v>44995</v>
       </c>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -4253,7 +4253,7 @@
         <v>1672</v>
       </c>
       <c r="C298" s="4">
-        <v>45269</v>
+        <v>44996</v>
       </c>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
@@ -4266,7 +4266,7 @@
         <v>1675</v>
       </c>
       <c r="C299" s="4">
-        <v>45270</v>
+        <v>44997</v>
       </c>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
@@ -4279,7 +4279,7 @@
         <v>2134</v>
       </c>
       <c r="C300" s="4">
-        <v>45271</v>
+        <v>44998</v>
       </c>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
@@ -4292,7 +4292,7 @@
         <v>2274</v>
       </c>
       <c r="C301" s="4">
-        <v>45272</v>
+        <v>44999</v>
       </c>
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
@@ -4305,7 +4305,7 @@
         <v>2051</v>
       </c>
       <c r="C302" s="4">
-        <v>45273</v>
+        <v>45000</v>
       </c>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
@@ -4318,7 +4318,7 @@
         <v>2196</v>
       </c>
       <c r="C303" s="4">
-        <v>45274</v>
+        <v>45001</v>
       </c>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
@@ -4331,7 +4331,7 @@
         <v>2635</v>
       </c>
       <c r="C304" s="4">
-        <v>45275</v>
+        <v>45002</v>
       </c>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
@@ -4344,7 +4344,7 @@
         <v>2168</v>
       </c>
       <c r="C305" s="4">
-        <v>45276</v>
+        <v>45003</v>
       </c>
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
@@ -4357,7 +4357,7 @@
         <v>2482</v>
       </c>
       <c r="C306" s="4">
-        <v>45277</v>
+        <v>45004</v>
       </c>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
@@ -4370,7 +4370,7 @@
         <v>2350</v>
       </c>
       <c r="C307" s="4">
-        <v>45278</v>
+        <v>45005</v>
       </c>
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
@@ -4383,7 +4383,7 @@
         <v>1617</v>
       </c>
       <c r="C308" s="4">
-        <v>45279</v>
+        <v>45006</v>
       </c>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
@@ -4396,7 +4396,7 @@
         <v>1831</v>
       </c>
       <c r="C309" s="4">
-        <v>45280</v>
+        <v>45007</v>
       </c>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
@@ -4409,7 +4409,7 @@
         <v>1722</v>
       </c>
       <c r="C310" s="4">
-        <v>45281</v>
+        <v>45008</v>
       </c>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
@@ -4422,7 +4422,7 @@
         <v>2683</v>
       </c>
       <c r="C311" s="4">
-        <v>45282</v>
+        <v>45009</v>
       </c>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -4435,7 +4435,7 @@
         <v>2684</v>
       </c>
       <c r="C312" s="4">
-        <v>45283</v>
+        <v>45010</v>
       </c>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
@@ -4448,7 +4448,7 @@
         <v>2324</v>
       </c>
       <c r="C313" s="4">
-        <v>45284</v>
+        <v>45011</v>
       </c>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
@@ -4461,7 +4461,7 @@
         <v>2352</v>
       </c>
       <c r="C314" s="4">
-        <v>45285</v>
+        <v>45012</v>
       </c>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
@@ -4474,7 +4474,7 @@
         <v>2477</v>
       </c>
       <c r="C315" s="4">
-        <v>45286</v>
+        <v>45013</v>
       </c>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
@@ -4487,7 +4487,7 @@
         <v>2677</v>
       </c>
       <c r="C316" s="4">
-        <v>45287</v>
+        <v>45014</v>
       </c>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
@@ -4500,7 +4500,7 @@
         <v>2349</v>
       </c>
       <c r="C317" s="4">
-        <v>45288</v>
+        <v>45015</v>
       </c>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
@@ -4513,7 +4513,7 @@
         <v>1646</v>
       </c>
       <c r="C318" s="4">
-        <v>45289</v>
+        <v>45016</v>
       </c>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -4526,7 +4526,7 @@
         <v>2497</v>
       </c>
       <c r="C319" s="4">
-        <v>45290</v>
+        <v>45017</v>
       </c>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
@@ -4539,7 +4539,7 @@
         <v>2411</v>
       </c>
       <c r="C320" s="4">
-        <v>45291</v>
+        <v>45018</v>
       </c>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
@@ -4552,7 +4552,7 @@
         <v>2445</v>
       </c>
       <c r="C321" s="4">
-        <v>45292</v>
+        <v>45019</v>
       </c>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
@@ -4565,7 +4565,7 @@
         <v>1454</v>
       </c>
       <c r="C322" s="4">
-        <v>45293</v>
+        <v>45020</v>
       </c>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
@@ -4578,7 +4578,7 @@
         <v>2641</v>
       </c>
       <c r="C323" s="4">
-        <v>45294</v>
+        <v>45021</v>
       </c>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
@@ -4591,7 +4591,7 @@
         <v>2361</v>
       </c>
       <c r="C324" s="4">
-        <v>45295</v>
+        <v>45022</v>
       </c>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
@@ -4604,7 +4604,7 @@
         <v>2443</v>
       </c>
       <c r="C325" s="4">
-        <v>45296</v>
+        <v>45023</v>
       </c>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
@@ -4617,7 +4617,7 @@
         <v>2242</v>
       </c>
       <c r="C326" s="4">
-        <v>45297</v>
+        <v>45024</v>
       </c>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
@@ -4630,7 +4630,7 @@
         <v>1412</v>
       </c>
       <c r="C327" s="4">
-        <v>45298</v>
+        <v>45025</v>
       </c>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
@@ -4643,7 +4643,7 @@
         <v>1899</v>
       </c>
       <c r="C328" s="4">
-        <v>45299</v>
+        <v>45026</v>
       </c>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
@@ -4656,7 +4656,7 @@
         <v>1898</v>
       </c>
       <c r="C329" s="4">
-        <v>45300</v>
+        <v>45027</v>
       </c>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
@@ -4669,7 +4669,7 @@
         <v>1702</v>
       </c>
       <c r="C330" s="4">
-        <v>45301</v>
+        <v>45028</v>
       </c>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
@@ -4682,7 +4682,7 @@
         <v>1652</v>
       </c>
       <c r="C331" s="4">
-        <v>45302</v>
+        <v>45029</v>
       </c>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
@@ -4695,7 +4695,7 @@
         <v>1810</v>
       </c>
       <c r="C332" s="4">
-        <v>45303</v>
+        <v>45030</v>
       </c>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
@@ -4708,7 +4708,7 @@
         <v>2205</v>
       </c>
       <c r="C333" s="4">
-        <v>45304</v>
+        <v>45031</v>
       </c>
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
@@ -4721,7 +4721,7 @@
         <v>2549</v>
       </c>
       <c r="C334" s="4">
-        <v>45305</v>
+        <v>45032</v>
       </c>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
@@ -4734,7 +4734,7 @@
         <v>2699</v>
       </c>
       <c r="C335" s="4">
-        <v>45306</v>
+        <v>45033</v>
       </c>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
@@ -4747,7 +4747,7 @@
         <v>2440</v>
       </c>
       <c r="C336" s="4">
-        <v>45307</v>
+        <v>45034</v>
       </c>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
@@ -4760,7 +4760,7 @@
         <v>1859</v>
       </c>
       <c r="C337" s="4">
-        <v>45308</v>
+        <v>45035</v>
       </c>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
@@ -4773,7 +4773,7 @@
         <v>2356</v>
       </c>
       <c r="C338" s="4">
-        <v>45309</v>
+        <v>45036</v>
       </c>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
@@ -4786,7 +4786,7 @@
         <v>1173</v>
       </c>
       <c r="C339" s="4">
-        <v>45310</v>
+        <v>45037</v>
       </c>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
@@ -4799,7 +4799,7 @@
         <v>1135</v>
       </c>
       <c r="C340" s="4">
-        <v>45311</v>
+        <v>45038</v>
       </c>
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
@@ -4812,7 +4812,7 @@
         <v>2153</v>
       </c>
       <c r="C341" s="4">
-        <v>45312</v>
+        <v>45039</v>
       </c>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
@@ -4825,7 +4825,7 @@
         <v>2545</v>
       </c>
       <c r="C342" s="4">
-        <v>45313</v>
+        <v>45040</v>
       </c>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
@@ -4838,7 +4838,7 @@
         <v>2157</v>
       </c>
       <c r="C343" s="4">
-        <v>45314</v>
+        <v>45041</v>
       </c>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
@@ -4851,7 +4851,7 @@
         <v>2696</v>
       </c>
       <c r="C344" s="4">
-        <v>45315</v>
+        <v>45042</v>
       </c>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
@@ -4864,7 +4864,7 @@
         <v>2432</v>
       </c>
       <c r="C345" s="4">
-        <v>45316</v>
+        <v>45043</v>
       </c>
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
@@ -4877,7 +4877,7 @@
         <v>1627</v>
       </c>
       <c r="C346" s="4">
-        <v>45317</v>
+        <v>45044</v>
       </c>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
@@ -4890,7 +4890,7 @@
         <v>2220</v>
       </c>
       <c r="C347" s="4">
-        <v>45318</v>
+        <v>45045</v>
       </c>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
@@ -4903,7 +4903,7 @@
         <v>2242</v>
       </c>
       <c r="C348" s="4">
-        <v>45319</v>
+        <v>45046</v>
       </c>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
@@ -4916,7 +4916,7 @@
         <v>2577</v>
       </c>
       <c r="C349" s="4">
-        <v>45320</v>
+        <v>45047</v>
       </c>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
@@ -4929,7 +4929,7 @@
         <v>2674</v>
       </c>
       <c r="C350" s="4">
-        <v>45321</v>
+        <v>45048</v>
       </c>
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
@@ -4942,7 +4942,7 @@
         <v>2253</v>
       </c>
       <c r="C351" s="4">
-        <v>45322</v>
+        <v>45049</v>
       </c>
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
@@ -4955,7 +4955,7 @@
         <v>2619</v>
       </c>
       <c r="C352" s="4">
-        <v>45323</v>
+        <v>45050</v>
       </c>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
@@ -4968,7 +4968,7 @@
         <v>2335</v>
       </c>
       <c r="C353" s="4">
-        <v>45324</v>
+        <v>45051</v>
       </c>
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
@@ -4981,7 +4981,7 @@
         <v>1520</v>
       </c>
       <c r="C354" s="4">
-        <v>45325</v>
+        <v>45052</v>
       </c>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
@@ -4994,7 +4994,7 @@
         <v>1832</v>
       </c>
       <c r="C355" s="4">
-        <v>45326</v>
+        <v>45053</v>
       </c>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
@@ -5007,7 +5007,7 @@
         <v>2649</v>
       </c>
       <c r="C356" s="4">
-        <v>45327</v>
+        <v>45054</v>
       </c>
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
@@ -5020,7 +5020,7 @@
         <v>1189</v>
       </c>
       <c r="C357" s="4">
-        <v>45328</v>
+        <v>45055</v>
       </c>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
@@ -5033,7 +5033,7 @@
         <v>2383</v>
       </c>
       <c r="C358" s="4">
-        <v>45329</v>
+        <v>45056</v>
       </c>
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
@@ -5046,7 +5046,7 @@
         <v>1790</v>
       </c>
       <c r="C359" s="4">
-        <v>45330</v>
+        <v>45057</v>
       </c>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
@@ -5059,7 +5059,7 @@
         <v>1859</v>
       </c>
       <c r="C360" s="4">
-        <v>45331</v>
+        <v>45058</v>
       </c>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
@@ -5072,7 +5072,7 @@
         <v>2033</v>
       </c>
       <c r="C361" s="4">
-        <v>45332</v>
+        <v>45059</v>
       </c>
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
@@ -5085,7 +5085,7 @@
         <v>2381</v>
       </c>
       <c r="C362" s="4">
-        <v>45333</v>
+        <v>45060</v>
       </c>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
@@ -5098,7 +5098,7 @@
         <v>1540</v>
       </c>
       <c r="C363" s="4">
-        <v>45334</v>
+        <v>45061</v>
       </c>
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
@@ -5111,7 +5111,7 @@
         <v>2566</v>
       </c>
       <c r="C364" s="4">
-        <v>45335</v>
+        <v>45062</v>
       </c>
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
@@ -5124,7 +5124,7 @@
         <v>2652</v>
       </c>
       <c r="C365" s="4">
-        <v>45336</v>
+        <v>45063</v>
       </c>
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
@@ -5137,7 +5137,7 @@
         <v>2393</v>
       </c>
       <c r="C366" s="4">
-        <v>45337</v>
+        <v>45064</v>
       </c>
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
@@ -5150,7 +5150,7 @@
         <v>1739</v>
       </c>
       <c r="C367" s="4">
-        <v>45338</v>
+        <v>45065</v>
       </c>
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
@@ -5163,7 +5163,7 @@
         <v>2029</v>
       </c>
       <c r="C368" s="4">
-        <v>45339</v>
+        <v>45066</v>
       </c>
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
@@ -5176,7 +5176,7 @@
         <v>1680</v>
       </c>
       <c r="C369" s="4">
-        <v>45340</v>
+        <v>45067</v>
       </c>
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
@@ -5189,7 +5189,7 @@
         <v>1442</v>
       </c>
       <c r="C370" s="4">
-        <v>45341</v>
+        <v>45068</v>
       </c>
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
@@ -5202,7 +5202,7 @@
         <v>2623</v>
       </c>
       <c r="C371" s="4">
-        <v>45342</v>
+        <v>45069</v>
       </c>
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
@@ -5215,7 +5215,7 @@
         <v>2221</v>
       </c>
       <c r="C372" s="4">
-        <v>45343</v>
+        <v>45070</v>
       </c>
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
@@ -5228,7 +5228,7 @@
         <v>2473</v>
       </c>
       <c r="C373" s="4">
-        <v>45344</v>
+        <v>45071</v>
       </c>
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
@@ -5241,7 +5241,7 @@
         <v>1669</v>
       </c>
       <c r="C374" s="4">
-        <v>45345</v>
+        <v>45072</v>
       </c>
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
@@ -5254,7 +5254,7 @@
         <v>2700</v>
       </c>
       <c r="C375" s="4">
-        <v>45346</v>
+        <v>45073</v>
       </c>
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
@@ -5267,7 +5267,7 @@
         <v>2175</v>
       </c>
       <c r="C376" s="4">
-        <v>45347</v>
+        <v>45074</v>
       </c>
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
@@ -5280,7 +5280,7 @@
         <v>1401</v>
       </c>
       <c r="C377" s="4">
-        <v>45348</v>
+        <v>45075</v>
       </c>
       <c r="J377" s="1"/>
       <c r="K377" s="1"/>
@@ -5293,7 +5293,7 @@
         <v>2510</v>
       </c>
       <c r="C378" s="4">
-        <v>45349</v>
+        <v>45076</v>
       </c>
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
@@ -5306,7 +5306,7 @@
         <v>1530</v>
       </c>
       <c r="C379" s="4">
-        <v>45350</v>
+        <v>45077</v>
       </c>
       <c r="J379" s="1"/>
       <c r="K379" s="1"/>
@@ -5319,7 +5319,7 @@
         <v>2393</v>
       </c>
       <c r="C380" s="4">
-        <v>45351</v>
+        <v>45078</v>
       </c>
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
@@ -5332,7 +5332,7 @@
         <v>2403</v>
       </c>
       <c r="C381" s="4">
-        <v>45352</v>
+        <v>45079</v>
       </c>
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
@@ -5345,7 +5345,7 @@
         <v>1759</v>
       </c>
       <c r="C382" s="4">
-        <v>45353</v>
+        <v>45080</v>
       </c>
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
@@ -5358,7 +5358,7 @@
         <v>1623</v>
       </c>
       <c r="C383" s="4">
-        <v>45354</v>
+        <v>45081</v>
       </c>
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
@@ -5371,7 +5371,7 @@
         <v>2027</v>
       </c>
       <c r="C384" s="4">
-        <v>45355</v>
+        <v>45082</v>
       </c>
       <c r="J384" s="1"/>
       <c r="K384" s="1"/>
@@ -5384,7 +5384,7 @@
         <v>2023</v>
       </c>
       <c r="C385" s="4">
-        <v>45356</v>
+        <v>45083</v>
       </c>
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
@@ -5397,7 +5397,7 @@
         <v>2169</v>
       </c>
       <c r="C386" s="4">
-        <v>45357</v>
+        <v>45084</v>
       </c>
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
@@ -5410,7 +5410,7 @@
         <v>2209</v>
       </c>
       <c r="C387" s="4">
-        <v>45358</v>
+        <v>45085</v>
       </c>
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
@@ -5423,7 +5423,7 @@
         <v>1689</v>
       </c>
       <c r="C388" s="4">
-        <v>45359</v>
+        <v>45086</v>
       </c>
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
@@ -5436,7 +5436,7 @@
         <v>2146</v>
       </c>
       <c r="C389" s="4">
-        <v>45360</v>
+        <v>45087</v>
       </c>
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
@@ -5449,7 +5449,7 @@
         <v>1744</v>
       </c>
       <c r="C390" s="4">
-        <v>45361</v>
+        <v>45088</v>
       </c>
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
@@ -5462,7 +5462,7 @@
         <v>2381</v>
       </c>
       <c r="C391" s="4">
-        <v>45362</v>
+        <v>45089</v>
       </c>
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
@@ -5475,7 +5475,7 @@
         <v>2057</v>
       </c>
       <c r="C392" s="4">
-        <v>45363</v>
+        <v>45090</v>
       </c>
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
@@ -5488,7 +5488,7 @@
         <v>2070</v>
       </c>
       <c r="C393" s="4">
-        <v>45364</v>
+        <v>45091</v>
       </c>
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
@@ -5501,7 +5501,7 @@
         <v>2126</v>
       </c>
       <c r="C394" s="4">
-        <v>45365</v>
+        <v>45092</v>
       </c>
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
@@ -5514,7 +5514,7 @@
         <v>2208</v>
       </c>
       <c r="C395" s="4">
-        <v>45366</v>
+        <v>45093</v>
       </c>
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
@@ -5527,7 +5527,7 @@
         <v>2031</v>
       </c>
       <c r="C396" s="4">
-        <v>45367</v>
+        <v>45094</v>
       </c>
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
@@ -5540,7 +5540,7 @@
         <v>2199</v>
       </c>
       <c r="C397" s="4">
-        <v>45368</v>
+        <v>45095</v>
       </c>
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
@@ -5553,7 +5553,7 @@
         <v>1500</v>
       </c>
       <c r="C398" s="4">
-        <v>45369</v>
+        <v>45096</v>
       </c>
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
@@ -5566,7 +5566,7 @@
         <v>2529</v>
       </c>
       <c r="C399" s="4">
-        <v>45370</v>
+        <v>45097</v>
       </c>
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
@@ -5579,7 +5579,7 @@
         <v>1155</v>
       </c>
       <c r="C400" s="4">
-        <v>45371</v>
+        <v>45098</v>
       </c>
       <c r="J400" s="1"/>
       <c r="K400" s="1"/>
@@ -5592,7 +5592,7 @@
         <v>2518</v>
       </c>
       <c r="C401" s="4">
-        <v>45372</v>
+        <v>45099</v>
       </c>
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
@@ -5605,7 +5605,7 @@
         <v>1514</v>
       </c>
       <c r="C402" s="4">
-        <v>45373</v>
+        <v>45100</v>
       </c>
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
@@ -5618,7 +5618,7 @@
         <v>2212</v>
       </c>
       <c r="C403" s="4">
-        <v>45374</v>
+        <v>45101</v>
       </c>
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
@@ -5631,7 +5631,7 @@
         <v>2534</v>
       </c>
       <c r="C404" s="4">
-        <v>45375</v>
+        <v>45102</v>
       </c>
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
@@ -5644,7 +5644,7 @@
         <v>2054</v>
       </c>
       <c r="C405" s="4">
-        <v>45376</v>
+        <v>45103</v>
       </c>
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
@@ -5657,7 +5657,7 @@
         <v>2120</v>
       </c>
       <c r="C406" s="4">
-        <v>45377</v>
+        <v>45104</v>
       </c>
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
@@ -5670,7 +5670,7 @@
         <v>1194</v>
       </c>
       <c r="C407" s="4">
-        <v>45378</v>
+        <v>45105</v>
       </c>
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
@@ -5683,7 +5683,7 @@
         <v>2673</v>
       </c>
       <c r="C408" s="4">
-        <v>45379</v>
+        <v>45106</v>
       </c>
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
@@ -5696,7 +5696,7 @@
         <v>2420</v>
       </c>
       <c r="C409" s="4">
-        <v>45380</v>
+        <v>45107</v>
       </c>
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
@@ -5709,7 +5709,7 @@
         <v>1744</v>
       </c>
       <c r="C410" s="4">
-        <v>45381</v>
+        <v>45108</v>
       </c>
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
@@ -5722,7 +5722,7 @@
         <v>2003</v>
       </c>
       <c r="C411" s="4">
-        <v>45382</v>
+        <v>45109</v>
       </c>
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
@@ -5735,7 +5735,7 @@
         <v>2459</v>
       </c>
       <c r="C412" s="4">
-        <v>45383</v>
+        <v>45110</v>
       </c>
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
@@ -5748,7 +5748,7 @@
         <v>2333</v>
       </c>
       <c r="C413" s="4">
-        <v>45384</v>
+        <v>45111</v>
       </c>
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
@@ -5761,7 +5761,7 @@
         <v>1609</v>
       </c>
       <c r="C414" s="4">
-        <v>45385</v>
+        <v>45112</v>
       </c>
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
@@ -5774,7 +5774,7 @@
         <v>1473</v>
       </c>
       <c r="C415" s="4">
-        <v>45386</v>
+        <v>45113</v>
       </c>
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
@@ -5787,7 +5787,7 @@
         <v>2473</v>
       </c>
       <c r="C416" s="4">
-        <v>45387</v>
+        <v>45114</v>
       </c>
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
@@ -5800,7 +5800,7 @@
         <v>2383</v>
       </c>
       <c r="C417" s="4">
-        <v>45388</v>
+        <v>45115</v>
       </c>
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
@@ -5813,7 +5813,7 @@
         <v>2661</v>
       </c>
       <c r="C418" s="4">
-        <v>45389</v>
+        <v>45116</v>
       </c>
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
@@ -5826,7 +5826,7 @@
         <v>2321</v>
       </c>
       <c r="C419" s="4">
-        <v>45390</v>
+        <v>45117</v>
       </c>
       <c r="J419" s="1"/>
       <c r="K419" s="1"/>
@@ -5839,7 +5839,7 @@
         <v>2511</v>
       </c>
       <c r="C420" s="4">
-        <v>45391</v>
+        <v>45118</v>
       </c>
       <c r="J420" s="1"/>
       <c r="K420" s="1"/>
@@ -5852,7 +5852,7 @@
         <v>2664</v>
       </c>
       <c r="C421" s="4">
-        <v>45392</v>
+        <v>45119</v>
       </c>
       <c r="J421" s="1"/>
       <c r="K421" s="1"/>
@@ -5865,7 +5865,7 @@
         <v>2530</v>
       </c>
       <c r="C422" s="4">
-        <v>45393</v>
+        <v>45120</v>
       </c>
       <c r="J422" s="1"/>
       <c r="K422" s="1"/>
@@ -5878,7 +5878,7 @@
         <v>2525</v>
       </c>
       <c r="C423" s="4">
-        <v>45394</v>
+        <v>45121</v>
       </c>
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
@@ -5891,7 +5891,7 @@
         <v>1058</v>
       </c>
       <c r="C424" s="4">
-        <v>45395</v>
+        <v>45122</v>
       </c>
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
@@ -5904,7 +5904,7 @@
         <v>2362</v>
       </c>
       <c r="C425" s="4">
-        <v>45396</v>
+        <v>45123</v>
       </c>
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
@@ -5917,7 +5917,7 @@
         <v>2631</v>
       </c>
       <c r="C426" s="4">
-        <v>45397</v>
+        <v>45124</v>
       </c>
       <c r="J426" s="1"/>
       <c r="K426" s="1"/>
@@ -5930,7 +5930,7 @@
         <v>2697</v>
       </c>
       <c r="C427" s="4">
-        <v>45398</v>
+        <v>45125</v>
       </c>
       <c r="J427" s="1"/>
       <c r="K427" s="1"/>
@@ -5943,7 +5943,7 @@
         <v>2087</v>
       </c>
       <c r="C428" s="4">
-        <v>45399</v>
+        <v>45126</v>
       </c>
       <c r="J428" s="1"/>
       <c r="K428" s="1"/>
@@ -5956,7 +5956,7 @@
         <v>1475</v>
       </c>
       <c r="C429" s="4">
-        <v>45400</v>
+        <v>45127</v>
       </c>
       <c r="J429" s="1"/>
       <c r="K429" s="1"/>
@@ -5969,7 +5969,7 @@
         <v>2346</v>
       </c>
       <c r="C430" s="4">
-        <v>45401</v>
+        <v>45128</v>
       </c>
       <c r="J430" s="1"/>
       <c r="K430" s="1"/>
@@ -5982,7 +5982,7 @@
         <v>1181</v>
       </c>
       <c r="C431" s="4">
-        <v>45402</v>
+        <v>45129</v>
       </c>
       <c r="J431" s="1"/>
       <c r="K431" s="1"/>
@@ -5995,7 +5995,7 @@
         <v>2174</v>
       </c>
       <c r="C432" s="4">
-        <v>45403</v>
+        <v>45130</v>
       </c>
       <c r="J432" s="1"/>
       <c r="K432" s="1"/>
@@ -6008,7 +6008,7 @@
         <v>1557</v>
       </c>
       <c r="C433" s="4">
-        <v>45404</v>
+        <v>45131</v>
       </c>
       <c r="J433" s="1"/>
       <c r="K433" s="1"/>
@@ -6021,7 +6021,7 @@
         <v>2120</v>
       </c>
       <c r="C434" s="4">
-        <v>45405</v>
+        <v>45132</v>
       </c>
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
@@ -6034,7 +6034,7 @@
         <v>2577</v>
       </c>
       <c r="C435" s="4">
-        <v>45406</v>
+        <v>45133</v>
       </c>
       <c r="J435" s="1"/>
       <c r="K435" s="1"/>
@@ -6047,7 +6047,7 @@
         <v>2436</v>
       </c>
       <c r="C436" s="4">
-        <v>45407</v>
+        <v>45134</v>
       </c>
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
@@ -6060,7 +6060,7 @@
         <v>2373</v>
       </c>
       <c r="C437" s="4">
-        <v>45408</v>
+        <v>45135</v>
       </c>
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
@@ -6073,7 +6073,7 @@
         <v>1891</v>
       </c>
       <c r="C438" s="4">
-        <v>45409</v>
+        <v>45136</v>
       </c>
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
@@ -6086,7 +6086,7 @@
         <v>1151</v>
       </c>
       <c r="C439" s="4">
-        <v>45410</v>
+        <v>45137</v>
       </c>
       <c r="J439" s="1"/>
       <c r="K439" s="1"/>
@@ -6099,7 +6099,7 @@
         <v>1571</v>
       </c>
       <c r="C440" s="4">
-        <v>45411</v>
+        <v>45138</v>
       </c>
       <c r="J440" s="1"/>
       <c r="K440" s="1"/>
@@ -6112,7 +6112,7 @@
         <v>1036</v>
       </c>
       <c r="C441" s="4">
-        <v>45412</v>
+        <v>45139</v>
       </c>
       <c r="J441" s="1"/>
       <c r="K441" s="1"/>
@@ -6125,7 +6125,7 @@
         <v>1518</v>
       </c>
       <c r="C442" s="4">
-        <v>45413</v>
+        <v>45140</v>
       </c>
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
@@ -6138,7 +6138,7 @@
         <v>1478</v>
       </c>
       <c r="C443" s="4">
-        <v>45414</v>
+        <v>45141</v>
       </c>
       <c r="J443" s="1"/>
       <c r="K443" s="1"/>
@@ -6151,7 +6151,7 @@
         <v>2249</v>
       </c>
       <c r="C444" s="4">
-        <v>45415</v>
+        <v>45142</v>
       </c>
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
@@ -6164,7 +6164,7 @@
         <v>1800</v>
       </c>
       <c r="C445" s="4">
-        <v>45416</v>
+        <v>45143</v>
       </c>
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
@@ -6177,7 +6177,7 @@
         <v>1502</v>
       </c>
       <c r="C446" s="4">
-        <v>45417</v>
+        <v>45144</v>
       </c>
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
@@ -6190,7 +6190,7 @@
         <v>2058</v>
       </c>
       <c r="C447" s="4">
-        <v>45418</v>
+        <v>45145</v>
       </c>
       <c r="J447" s="1"/>
       <c r="K447" s="1"/>
@@ -6203,7 +6203,7 @@
         <v>1483</v>
       </c>
       <c r="C448" s="4">
-        <v>45419</v>
+        <v>45146</v>
       </c>
       <c r="J448" s="1"/>
       <c r="K448" s="1"/>
@@ -6216,7 +6216,7 @@
         <v>2259</v>
       </c>
       <c r="C449" s="4">
-        <v>45420</v>
+        <v>45147</v>
       </c>
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
@@ -6229,7 +6229,7 @@
         <v>2301</v>
       </c>
       <c r="C450" s="4">
-        <v>45421</v>
+        <v>45148</v>
       </c>
       <c r="J450" s="1"/>
       <c r="K450" s="1"/>
@@ -6242,7 +6242,7 @@
         <v>2546</v>
       </c>
       <c r="C451" s="4">
-        <v>45422</v>
+        <v>45149</v>
       </c>
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
@@ -6255,7 +6255,7 @@
         <v>2477</v>
       </c>
       <c r="C452" s="4">
-        <v>45423</v>
+        <v>45150</v>
       </c>
       <c r="J452" s="1"/>
       <c r="K452" s="1"/>
@@ -6268,7 +6268,7 @@
         <v>2163</v>
       </c>
       <c r="C453" s="4">
-        <v>45424</v>
+        <v>45151</v>
       </c>
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
@@ -6281,7 +6281,7 @@
         <v>2225</v>
       </c>
       <c r="C454" s="4">
-        <v>45425</v>
+        <v>45152</v>
       </c>
       <c r="J454" s="1"/>
       <c r="K454" s="1"/>
@@ -6294,7 +6294,7 @@
         <v>2008</v>
       </c>
       <c r="C455" s="4">
-        <v>45426</v>
+        <v>45153</v>
       </c>
       <c r="J455" s="1"/>
       <c r="K455" s="1"/>
@@ -6307,7 +6307,7 @@
         <v>1895</v>
       </c>
       <c r="C456" s="4">
-        <v>45427</v>
+        <v>45154</v>
       </c>
       <c r="J456" s="1"/>
       <c r="K456" s="1"/>
@@ -6320,7 +6320,7 @@
         <v>2419</v>
       </c>
       <c r="C457" s="4">
-        <v>45428</v>
+        <v>45155</v>
       </c>
       <c r="J457" s="1"/>
       <c r="K457" s="1"/>
@@ -6333,7 +6333,7 @@
         <v>1422</v>
       </c>
       <c r="C458" s="4">
-        <v>45429</v>
+        <v>45156</v>
       </c>
       <c r="J458" s="1"/>
       <c r="K458" s="1"/>
@@ -6346,7 +6346,7 @@
         <v>1693</v>
       </c>
       <c r="C459" s="4">
-        <v>45430</v>
+        <v>45157</v>
       </c>
       <c r="J459" s="1"/>
       <c r="K459" s="1"/>
@@ -6359,7 +6359,7 @@
         <v>2537</v>
       </c>
       <c r="C460" s="4">
-        <v>45431</v>
+        <v>45158</v>
       </c>
       <c r="J460" s="1"/>
       <c r="K460" s="1"/>
@@ -6372,7 +6372,7 @@
         <v>2287</v>
       </c>
       <c r="C461" s="4">
-        <v>45432</v>
+        <v>45159</v>
       </c>
       <c r="J461" s="1"/>
       <c r="K461" s="1"/>
@@ -6385,7 +6385,7 @@
         <v>1069</v>
       </c>
       <c r="C462" s="4">
-        <v>45433</v>
+        <v>45160</v>
       </c>
       <c r="J462" s="1"/>
       <c r="K462" s="1"/>
@@ -6398,7 +6398,7 @@
         <v>2043</v>
       </c>
       <c r="C463" s="4">
-        <v>45434</v>
+        <v>45161</v>
       </c>
       <c r="J463" s="1"/>
       <c r="K463" s="1"/>
@@ -6411,7 +6411,7 @@
         <v>2074</v>
       </c>
       <c r="C464" s="4">
-        <v>45435</v>
+        <v>45162</v>
       </c>
       <c r="J464" s="1"/>
       <c r="K464" s="1"/>
@@ -6424,7 +6424,7 @@
         <v>2040</v>
       </c>
       <c r="C465" s="4">
-        <v>45436</v>
+        <v>45163</v>
       </c>
       <c r="J465" s="1"/>
       <c r="K465" s="1"/>
@@ -6437,7 +6437,7 @@
         <v>1748</v>
       </c>
       <c r="C466" s="4">
-        <v>45437</v>
+        <v>45164</v>
       </c>
       <c r="J466" s="1"/>
       <c r="K466" s="1"/>
@@ -6450,7 +6450,7 @@
         <v>2587</v>
       </c>
       <c r="C467" s="4">
-        <v>45438</v>
+        <v>45165</v>
       </c>
       <c r="J467" s="1"/>
       <c r="K467" s="1"/>
@@ -6463,7 +6463,7 @@
         <v>2303</v>
       </c>
       <c r="C468" s="4">
-        <v>45439</v>
+        <v>45166</v>
       </c>
       <c r="J468" s="1"/>
       <c r="K468" s="1"/>
@@ -6476,7 +6476,7 @@
         <v>1831</v>
       </c>
       <c r="C469" s="4">
-        <v>45440</v>
+        <v>45167</v>
       </c>
       <c r="J469" s="1"/>
       <c r="K469" s="1"/>
@@ -6489,7 +6489,7 @@
         <v>2640</v>
       </c>
       <c r="C470" s="4">
-        <v>45441</v>
+        <v>45168</v>
       </c>
       <c r="J470" s="1"/>
       <c r="K470" s="1"/>
@@ -6502,7 +6502,7 @@
         <v>2594</v>
       </c>
       <c r="C471" s="4">
-        <v>45442</v>
+        <v>45169</v>
       </c>
       <c r="J471" s="1"/>
       <c r="K471" s="1"/>
@@ -6515,7 +6515,7 @@
         <v>2031</v>
       </c>
       <c r="C472" s="4">
-        <v>45443</v>
+        <v>45170</v>
       </c>
       <c r="J472" s="1"/>
       <c r="K472" s="1"/>
@@ -6528,7 +6528,7 @@
         <v>2209</v>
       </c>
       <c r="C473" s="4">
-        <v>45444</v>
+        <v>45171</v>
       </c>
       <c r="J473" s="1"/>
       <c r="K473" s="1"/>
@@ -6541,7 +6541,7 @@
         <v>2062</v>
       </c>
       <c r="C474" s="4">
-        <v>45445</v>
+        <v>45172</v>
       </c>
       <c r="J474" s="1"/>
       <c r="K474" s="1"/>
@@ -6554,7 +6554,7 @@
         <v>2332</v>
       </c>
       <c r="C475" s="4">
-        <v>45446</v>
+        <v>45173</v>
       </c>
       <c r="J475" s="1"/>
       <c r="K475" s="1"/>
@@ -6567,7 +6567,7 @@
         <v>2119</v>
       </c>
       <c r="C476" s="4">
-        <v>45447</v>
+        <v>45174</v>
       </c>
       <c r="J476" s="1"/>
       <c r="K476" s="1"/>
@@ -6580,7 +6580,7 @@
         <v>1841</v>
       </c>
       <c r="C477" s="4">
-        <v>45448</v>
+        <v>45175</v>
       </c>
       <c r="J477" s="1"/>
       <c r="K477" s="1"/>
@@ -6593,7 +6593,7 @@
         <v>2648</v>
       </c>
       <c r="C478" s="4">
-        <v>45449</v>
+        <v>45176</v>
       </c>
       <c r="J478" s="1"/>
       <c r="K478" s="1"/>
@@ -6606,7 +6606,7 @@
         <v>2076</v>
       </c>
       <c r="C479" s="4">
-        <v>45450</v>
+        <v>45177</v>
       </c>
       <c r="J479" s="1"/>
       <c r="K479" s="1"/>
@@ -6619,7 +6619,7 @@
         <v>2593</v>
       </c>
       <c r="C480" s="4">
-        <v>45451</v>
+        <v>45178</v>
       </c>
       <c r="J480" s="1"/>
       <c r="K480" s="1"/>
@@ -6632,7 +6632,7 @@
         <v>2184</v>
       </c>
       <c r="C481" s="4">
-        <v>45452</v>
+        <v>45179</v>
       </c>
       <c r="J481" s="1"/>
       <c r="K481" s="1"/>
@@ -6645,7 +6645,7 @@
         <v>2492</v>
       </c>
       <c r="C482" s="4">
-        <v>45453</v>
+        <v>45180</v>
       </c>
       <c r="J482" s="1"/>
       <c r="K482" s="1"/>
@@ -6658,7 +6658,7 @@
         <v>1613</v>
       </c>
       <c r="C483" s="4">
-        <v>45454</v>
+        <v>45181</v>
       </c>
       <c r="J483" s="1"/>
       <c r="K483" s="1"/>
@@ -6671,7 +6671,7 @@
         <v>2017</v>
       </c>
       <c r="C484" s="4">
-        <v>45455</v>
+        <v>45182</v>
       </c>
       <c r="J484" s="1"/>
       <c r="K484" s="1"/>
@@ -6684,7 +6684,7 @@
         <v>2666</v>
       </c>
       <c r="C485" s="4">
-        <v>45456</v>
+        <v>45183</v>
       </c>
       <c r="J485" s="1"/>
       <c r="K485" s="1"/>
@@ -6697,7 +6697,7 @@
         <v>2198</v>
       </c>
       <c r="C486" s="4">
-        <v>45457</v>
+        <v>45184</v>
       </c>
       <c r="J486" s="1"/>
       <c r="K486" s="1"/>
@@ -6710,7 +6710,7 @@
         <v>2435</v>
       </c>
       <c r="C487" s="4">
-        <v>45458</v>
+        <v>45185</v>
       </c>
       <c r="J487" s="1"/>
       <c r="K487" s="1"/>
@@ -6723,7 +6723,7 @@
         <v>2671</v>
       </c>
       <c r="C488" s="4">
-        <v>45459</v>
+        <v>45186</v>
       </c>
       <c r="J488" s="1"/>
       <c r="K488" s="1"/>
@@ -6736,7 +6736,7 @@
         <v>2356</v>
       </c>
       <c r="C489" s="4">
-        <v>45460</v>
+        <v>45187</v>
       </c>
       <c r="J489" s="1"/>
       <c r="K489" s="1"/>
@@ -6749,7 +6749,7 @@
         <v>1756</v>
       </c>
       <c r="C490" s="4">
-        <v>45461</v>
+        <v>45188</v>
       </c>
       <c r="J490" s="1"/>
       <c r="K490" s="1"/>
@@ -6762,7 +6762,7 @@
         <v>2575</v>
       </c>
       <c r="C491" s="4">
-        <v>45462</v>
+        <v>45189</v>
       </c>
       <c r="J491" s="1"/>
       <c r="K491" s="1"/>
@@ -6775,7 +6775,7 @@
         <v>2001</v>
       </c>
       <c r="C492" s="4">
-        <v>45463</v>
+        <v>45190</v>
       </c>
       <c r="J492" s="1"/>
       <c r="K492" s="1"/>
@@ -6788,7 +6788,7 @@
         <v>1462</v>
       </c>
       <c r="C493" s="4">
-        <v>45464</v>
+        <v>45191</v>
       </c>
       <c r="J493" s="1"/>
       <c r="K493" s="1"/>
@@ -6801,7 +6801,7 @@
         <v>2129</v>
       </c>
       <c r="C494" s="4">
-        <v>45465</v>
+        <v>45192</v>
       </c>
       <c r="J494" s="1"/>
       <c r="K494" s="1"/>
@@ -6814,7 +6814,7 @@
         <v>1003</v>
       </c>
       <c r="C495" s="4">
-        <v>45466</v>
+        <v>45193</v>
       </c>
       <c r="J495" s="1"/>
       <c r="K495" s="1"/>
@@ -6827,7 +6827,7 @@
         <v>1755</v>
       </c>
       <c r="C496" s="4">
-        <v>45467</v>
+        <v>45194</v>
       </c>
       <c r="J496" s="1"/>
       <c r="K496" s="1"/>
@@ -6840,7 +6840,7 @@
         <v>2120</v>
       </c>
       <c r="C497" s="4">
-        <v>45468</v>
+        <v>45195</v>
       </c>
       <c r="J497" s="1"/>
       <c r="K497" s="1"/>
@@ -6853,7 +6853,7 @@
         <v>2362</v>
       </c>
       <c r="C498" s="4">
-        <v>45469</v>
+        <v>45196</v>
       </c>
       <c r="J498" s="1"/>
       <c r="K498" s="1"/>
@@ -6866,7 +6866,7 @@
         <v>2131</v>
       </c>
       <c r="C499" s="4">
-        <v>45470</v>
+        <v>45197</v>
       </c>
       <c r="J499" s="1"/>
       <c r="K499" s="1"/>
@@ -6879,7 +6879,7 @@
         <v>2684</v>
       </c>
       <c r="C500" s="4">
-        <v>45471</v>
+        <v>45198</v>
       </c>
       <c r="J500" s="1"/>
       <c r="K500" s="1"/>
@@ -6892,7 +6892,7 @@
         <v>2455</v>
       </c>
       <c r="C501" s="4">
-        <v>45472</v>
+        <v>45199</v>
       </c>
       <c r="J501" s="1"/>
       <c r="K501" s="1"/>
@@ -6905,7 +6905,7 @@
         <v>2137</v>
       </c>
       <c r="C502" s="4">
-        <v>45473</v>
+        <v>45200</v>
       </c>
       <c r="J502" s="1"/>
       <c r="K502" s="1"/>
@@ -6918,7 +6918,7 @@
         <v>2102</v>
       </c>
       <c r="C503" s="4">
-        <v>45474</v>
+        <v>45201</v>
       </c>
       <c r="J503" s="1"/>
       <c r="K503" s="1"/>
@@ -6931,7 +6931,7 @@
         <v>2404</v>
       </c>
       <c r="C504" s="4">
-        <v>45475</v>
+        <v>45202</v>
       </c>
       <c r="J504" s="1"/>
       <c r="K504" s="1"/>
@@ -6944,7 +6944,7 @@
         <v>1655</v>
       </c>
       <c r="C505" s="4">
-        <v>45476</v>
+        <v>45203</v>
       </c>
       <c r="J505" s="1"/>
       <c r="K505" s="1"/>
@@ -6957,7 +6957,7 @@
         <v>1681</v>
       </c>
       <c r="C506" s="4">
-        <v>45477</v>
+        <v>45204</v>
       </c>
       <c r="J506" s="1"/>
       <c r="K506" s="1"/>
@@ -6970,7 +6970,7 @@
         <v>2343</v>
       </c>
       <c r="C507" s="4">
-        <v>45478</v>
+        <v>45205</v>
       </c>
       <c r="J507" s="1"/>
       <c r="K507" s="1"/>
@@ -6983,7 +6983,7 @@
         <v>1682</v>
       </c>
       <c r="C508" s="4">
-        <v>45479</v>
+        <v>45206</v>
       </c>
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
@@ -6996,7 +6996,7 @@
         <v>2556</v>
       </c>
       <c r="C509" s="4">
-        <v>45480</v>
+        <v>45207</v>
       </c>
       <c r="J509" s="1"/>
       <c r="K509" s="1"/>
@@ -7009,7 +7009,7 @@
         <v>2042</v>
       </c>
       <c r="C510" s="4">
-        <v>45481</v>
+        <v>45208</v>
       </c>
       <c r="J510" s="1"/>
       <c r="K510" s="1"/>
@@ -7022,7 +7022,7 @@
         <v>2697</v>
       </c>
       <c r="C511" s="4">
-        <v>45482</v>
+        <v>45209</v>
       </c>
       <c r="J511" s="1"/>
       <c r="K511" s="1"/>
@@ -7035,7 +7035,7 @@
         <v>2126</v>
       </c>
       <c r="C512" s="4">
-        <v>45483</v>
+        <v>45210</v>
       </c>
       <c r="J512" s="1"/>
       <c r="K512" s="1"/>
@@ -7048,7 +7048,7 @@
         <v>1768</v>
       </c>
       <c r="C513" s="4">
-        <v>45484</v>
+        <v>45211</v>
       </c>
       <c r="J513" s="1"/>
       <c r="K513" s="1"/>
@@ -7061,7 +7061,7 @@
         <v>2587</v>
       </c>
       <c r="C514" s="4">
-        <v>45485</v>
+        <v>45212</v>
       </c>
       <c r="J514" s="1"/>
       <c r="K514" s="1"/>
@@ -7074,7 +7074,7 @@
         <v>2369</v>
       </c>
       <c r="C515" s="4">
-        <v>45486</v>
+        <v>45213</v>
       </c>
       <c r="J515" s="1"/>
       <c r="K515" s="1"/>
@@ -7087,7 +7087,7 @@
         <v>2016</v>
       </c>
       <c r="C516" s="4">
-        <v>45487</v>
+        <v>45214</v>
       </c>
       <c r="J516" s="1"/>
       <c r="K516" s="1"/>
@@ -7100,7 +7100,7 @@
         <v>2502</v>
       </c>
       <c r="C517" s="4">
-        <v>45488</v>
+        <v>45215</v>
       </c>
       <c r="J517" s="1"/>
       <c r="K517" s="1"/>
@@ -7113,7 +7113,7 @@
         <v>1638</v>
       </c>
       <c r="C518" s="4">
-        <v>45489</v>
+        <v>45216</v>
       </c>
       <c r="J518" s="1"/>
       <c r="K518" s="1"/>
@@ -7126,7 +7126,7 @@
         <v>2642</v>
       </c>
       <c r="C519" s="4">
-        <v>45490</v>
+        <v>45217</v>
       </c>
       <c r="J519" s="1"/>
       <c r="K519" s="1"/>
@@ -7139,7 +7139,7 @@
         <v>1705</v>
       </c>
       <c r="C520" s="4">
-        <v>45491</v>
+        <v>45218</v>
       </c>
       <c r="J520" s="1"/>
       <c r="K520" s="1"/>
@@ -7152,7 +7152,7 @@
         <v>2175</v>
       </c>
       <c r="C521" s="4">
-        <v>45492</v>
+        <v>45219</v>
       </c>
       <c r="J521" s="1"/>
       <c r="K521" s="1"/>
@@ -7165,7 +7165,7 @@
         <v>1534</v>
       </c>
       <c r="C522" s="4">
-        <v>45493</v>
+        <v>45220</v>
       </c>
       <c r="J522" s="1"/>
       <c r="K522" s="1"/>
@@ -7178,7 +7178,7 @@
         <v>2169</v>
       </c>
       <c r="C523" s="4">
-        <v>45494</v>
+        <v>45221</v>
       </c>
       <c r="J523" s="1"/>
       <c r="K523" s="1"/>
@@ -7191,7 +7191,7 @@
         <v>1748</v>
       </c>
       <c r="C524" s="4">
-        <v>45495</v>
+        <v>45222</v>
       </c>
       <c r="J524" s="1"/>
       <c r="K524" s="1"/>
@@ -7204,7 +7204,7 @@
         <v>2167</v>
       </c>
       <c r="C525" s="4">
-        <v>45496</v>
+        <v>45223</v>
       </c>
       <c r="J525" s="1"/>
       <c r="K525" s="1"/>
@@ -7217,7 +7217,7 @@
         <v>1664</v>
       </c>
       <c r="C526" s="4">
-        <v>45497</v>
+        <v>45224</v>
       </c>
       <c r="J526" s="1"/>
       <c r="K526" s="1"/>
@@ -7230,7 +7230,7 @@
         <v>2191</v>
       </c>
       <c r="C527" s="4">
-        <v>45498</v>
+        <v>45225</v>
       </c>
       <c r="J527" s="1"/>
       <c r="K527" s="1"/>
@@ -7243,7 +7243,7 @@
         <v>2520</v>
       </c>
       <c r="C528" s="4">
-        <v>45499</v>
+        <v>45226</v>
       </c>
       <c r="J528" s="1"/>
       <c r="K528" s="1"/>
@@ -7256,7 +7256,7 @@
         <v>2389</v>
       </c>
       <c r="C529" s="4">
-        <v>45500</v>
+        <v>45227</v>
       </c>
       <c r="J529" s="1"/>
       <c r="K529" s="1"/>
@@ -7269,7 +7269,7 @@
         <v>1563</v>
       </c>
       <c r="C530" s="4">
-        <v>45501</v>
+        <v>45228</v>
       </c>
       <c r="J530" s="1"/>
       <c r="K530" s="1"/>
@@ -7282,7 +7282,7 @@
         <v>2223</v>
       </c>
       <c r="C531" s="4">
-        <v>45502</v>
+        <v>45229</v>
       </c>
       <c r="J531" s="1"/>
       <c r="K531" s="1"/>
@@ -7295,7 +7295,7 @@
         <v>1634</v>
       </c>
       <c r="C532" s="4">
-        <v>45503</v>
+        <v>45230</v>
       </c>
       <c r="J532" s="1"/>
       <c r="K532" s="1"/>
@@ -7308,7 +7308,7 @@
         <v>2222</v>
       </c>
       <c r="C533" s="4">
-        <v>45504</v>
+        <v>45231</v>
       </c>
       <c r="J533" s="1"/>
       <c r="K533" s="1"/>
@@ -7321,7 +7321,7 @@
         <v>2458</v>
       </c>
       <c r="C534" s="4">
-        <v>45505</v>
+        <v>45232</v>
       </c>
       <c r="J534" s="1"/>
       <c r="K534" s="1"/>
@@ -7334,7 +7334,7 @@
         <v>2212</v>
       </c>
       <c r="C535" s="4">
-        <v>45506</v>
+        <v>45233</v>
       </c>
       <c r="J535" s="1"/>
       <c r="K535" s="1"/>
@@ -7347,7 +7347,7 @@
         <v>2686</v>
       </c>
       <c r="C536" s="4">
-        <v>45507</v>
+        <v>45234</v>
       </c>
       <c r="J536" s="1"/>
       <c r="K536" s="1"/>
@@ -7360,7 +7360,7 @@
         <v>1729</v>
       </c>
       <c r="C537" s="4">
-        <v>45508</v>
+        <v>45235</v>
       </c>
       <c r="J537" s="1"/>
       <c r="K537" s="1"/>
@@ -7373,7 +7373,7 @@
         <v>1176</v>
       </c>
       <c r="C538" s="4">
-        <v>45509</v>
+        <v>45236</v>
       </c>
       <c r="J538" s="1"/>
       <c r="K538" s="1"/>
@@ -7386,7 +7386,7 @@
         <v>1633</v>
       </c>
       <c r="C539" s="4">
-        <v>45510</v>
+        <v>45237</v>
       </c>
       <c r="J539" s="1"/>
       <c r="K539" s="1"/>
@@ -7399,7 +7399,7 @@
         <v>2560</v>
       </c>
       <c r="C540" s="4">
-        <v>45511</v>
+        <v>45238</v>
       </c>
       <c r="J540" s="1"/>
       <c r="K540" s="1"/>
@@ -7412,7 +7412,7 @@
         <v>2556</v>
       </c>
       <c r="C541" s="4">
-        <v>45512</v>
+        <v>45239</v>
       </c>
       <c r="J541" s="1"/>
       <c r="K541" s="1"/>
@@ -7425,7 +7425,7 @@
         <v>2553</v>
       </c>
       <c r="C542" s="4">
-        <v>45513</v>
+        <v>45240</v>
       </c>
       <c r="J542" s="1"/>
       <c r="K542" s="1"/>
@@ -7438,7 +7438,7 @@
         <v>2485</v>
       </c>
       <c r="C543" s="4">
-        <v>45514</v>
+        <v>45241</v>
       </c>
       <c r="J543" s="1"/>
       <c r="K543" s="1"/>
@@ -7451,7 +7451,7 @@
         <v>1524</v>
       </c>
       <c r="C544" s="4">
-        <v>45515</v>
+        <v>45242</v>
       </c>
       <c r="J544" s="1"/>
       <c r="K544" s="1"/>
@@ -7464,7 +7464,7 @@
         <v>2239</v>
       </c>
       <c r="C545" s="4">
-        <v>45516</v>
+        <v>45243</v>
       </c>
       <c r="J545" s="1"/>
       <c r="K545" s="1"/>
@@ -7477,7 +7477,7 @@
         <v>1100</v>
       </c>
       <c r="C546" s="4">
-        <v>45517</v>
+        <v>45244</v>
       </c>
       <c r="J546" s="1"/>
       <c r="K546" s="1"/>
@@ -7490,7 +7490,7 @@
         <v>2307</v>
       </c>
       <c r="C547" s="4">
-        <v>45518</v>
+        <v>45245</v>
       </c>
       <c r="J547" s="1"/>
       <c r="K547" s="1"/>
@@ -7503,7 +7503,7 @@
         <v>2156</v>
       </c>
       <c r="C548" s="4">
-        <v>45519</v>
+        <v>45246</v>
       </c>
       <c r="J548" s="1"/>
       <c r="K548" s="1"/>
@@ -7516,7 +7516,7 @@
         <v>1191</v>
       </c>
       <c r="C549" s="4">
-        <v>45520</v>
+        <v>45247</v>
       </c>
       <c r="J549" s="1"/>
       <c r="K549" s="1"/>
@@ -7529,7 +7529,7 @@
         <v>2301</v>
       </c>
       <c r="C550" s="4">
-        <v>45521</v>
+        <v>45248</v>
       </c>
       <c r="J550" s="1"/>
       <c r="K550" s="1"/>
@@ -7542,7 +7542,7 @@
         <v>2067</v>
       </c>
       <c r="C551" s="4">
-        <v>45522</v>
+        <v>45249</v>
       </c>
       <c r="J551" s="1"/>
       <c r="K551" s="1"/>
@@ -7555,7 +7555,7 @@
         <v>2292</v>
       </c>
       <c r="C552" s="4">
-        <v>45523</v>
+        <v>45250</v>
       </c>
       <c r="J552" s="1"/>
       <c r="K552" s="1"/>
@@ -7568,7 +7568,7 @@
         <v>2237</v>
       </c>
       <c r="C553" s="4">
-        <v>45524</v>
+        <v>45251</v>
       </c>
       <c r="J553" s="1"/>
       <c r="K553" s="1"/>
@@ -7581,7 +7581,7 @@
         <v>1794</v>
       </c>
       <c r="C554" s="4">
-        <v>45525</v>
+        <v>45252</v>
       </c>
       <c r="J554" s="1"/>
       <c r="K554" s="1"/>
@@ -7594,7 +7594,7 @@
         <v>2124</v>
       </c>
       <c r="C555" s="4">
-        <v>45526</v>
+        <v>45253</v>
       </c>
       <c r="J555" s="1"/>
       <c r="K555" s="1"/>
@@ -7607,7 +7607,7 @@
         <v>1762</v>
       </c>
       <c r="C556" s="4">
-        <v>45527</v>
+        <v>45254</v>
       </c>
       <c r="J556" s="1"/>
       <c r="K556" s="1"/>
@@ -7620,7 +7620,7 @@
         <v>2262</v>
       </c>
       <c r="C557" s="4">
-        <v>45528</v>
+        <v>45255</v>
       </c>
       <c r="J557" s="1"/>
       <c r="K557" s="1"/>
@@ -7633,7 +7633,7 @@
         <v>2356</v>
       </c>
       <c r="C558" s="4">
-        <v>45529</v>
+        <v>45256</v>
       </c>
       <c r="J558" s="1"/>
       <c r="K558" s="1"/>
@@ -7646,7 +7646,7 @@
         <v>2320</v>
       </c>
       <c r="C559" s="4">
-        <v>45530</v>
+        <v>45257</v>
       </c>
       <c r="J559" s="1"/>
       <c r="K559" s="1"/>
@@ -7659,7 +7659,7 @@
         <v>2022</v>
       </c>
       <c r="C560" s="4">
-        <v>45531</v>
+        <v>45258</v>
       </c>
       <c r="J560" s="1"/>
       <c r="K560" s="1"/>
@@ -7672,7 +7672,7 @@
         <v>2004</v>
       </c>
       <c r="C561" s="4">
-        <v>45532</v>
+        <v>45259</v>
       </c>
       <c r="J561" s="1"/>
       <c r="K561" s="1"/>
@@ -7685,7 +7685,7 @@
         <v>1501</v>
       </c>
       <c r="C562" s="4">
-        <v>45533</v>
+        <v>45260</v>
       </c>
       <c r="J562" s="1"/>
       <c r="K562" s="1"/>
@@ -7698,7 +7698,7 @@
         <v>1642</v>
       </c>
       <c r="C563" s="4">
-        <v>45534</v>
+        <v>45261</v>
       </c>
       <c r="J563" s="1"/>
       <c r="K563" s="1"/>
@@ -7711,7 +7711,7 @@
         <v>2463</v>
       </c>
       <c r="C564" s="4">
-        <v>45535</v>
+        <v>45262</v>
       </c>
       <c r="J564" s="1"/>
       <c r="K564" s="1"/>
@@ -7724,7 +7724,7 @@
         <v>1812</v>
       </c>
       <c r="C565" s="4">
-        <v>45536</v>
+        <v>45263</v>
       </c>
       <c r="J565" s="1"/>
       <c r="K565" s="1"/>
@@ -7737,7 +7737,7 @@
         <v>2608</v>
       </c>
       <c r="C566" s="4">
-        <v>45537</v>
+        <v>45264</v>
       </c>
       <c r="J566" s="1"/>
       <c r="K566" s="1"/>
@@ -7750,7 +7750,7 @@
         <v>1489</v>
       </c>
       <c r="C567" s="4">
-        <v>45538</v>
+        <v>45265</v>
       </c>
       <c r="J567" s="1"/>
       <c r="K567" s="1"/>
@@ -7763,7 +7763,7 @@
         <v>2421</v>
       </c>
       <c r="C568" s="4">
-        <v>45539</v>
+        <v>45266</v>
       </c>
       <c r="J568" s="1"/>
       <c r="K568" s="1"/>
@@ -7776,7 +7776,7 @@
         <v>1698</v>
       </c>
       <c r="C569" s="4">
-        <v>45540</v>
+        <v>45267</v>
       </c>
       <c r="J569" s="1"/>
       <c r="K569" s="1"/>
@@ -7789,7 +7789,7 @@
         <v>1752</v>
       </c>
       <c r="C570" s="4">
-        <v>45541</v>
+        <v>45268</v>
       </c>
       <c r="J570" s="1"/>
       <c r="K570" s="1"/>
@@ -7802,7 +7802,7 @@
         <v>1621</v>
       </c>
       <c r="C571" s="4">
-        <v>45542</v>
+        <v>45269</v>
       </c>
       <c r="J571" s="1"/>
       <c r="K571" s="1"/>
@@ -7815,7 +7815,7 @@
         <v>2375</v>
       </c>
       <c r="C572" s="4">
-        <v>45543</v>
+        <v>45270</v>
       </c>
       <c r="J572" s="1"/>
       <c r="K572" s="1"/>
